--- a/HousesDB.xlsx
+++ b/HousesDB.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,9 +15,872 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="286">
+  <si>
+    <t>The Grand Lofts</t>
+  </si>
+  <si>
+    <t>1085 Hartford Turnpike</t>
+  </si>
+  <si>
+    <t>vernon</t>
+  </si>
+  <si>
+    <t>ct</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon/The-Grand-Lofts/179435/</t>
+  </si>
+  <si>
+    <t>Alterra , Rocky Hill Apartments</t>
+  </si>
+  <si>
+    <t>719 Brook Street</t>
+  </si>
+  <si>
+    <t>rocky_hill</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Rocky-Hill/Alterra-,-Rocky-Hill-Apartments/191047/</t>
+  </si>
+  <si>
+    <t>Montage - Rocky Hill</t>
+  </si>
+  <si>
+    <t>17 Sagamore Lane</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Rocky-Hill/Montage-Rocky-Hill/100027556/</t>
+  </si>
+  <si>
+    <t>Broadleaf Boulevard</t>
+  </si>
+  <si>
+    <t>4000 Broadleaf Blvd.</t>
+  </si>
+  <si>
+    <t>manchester</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/Broadleaf-Boulevard/100023229/</t>
+  </si>
+  <si>
+    <t>Spectra Boutique Downtown Apartments</t>
+  </si>
+  <si>
+    <t>5 Constitution Plaza</t>
+  </si>
+  <si>
+    <t>hartford</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/Spectra-Boutique-Downtown-Apartments/100024793/</t>
+  </si>
+  <si>
+    <t>Mayfield Place</t>
+  </si>
+  <si>
+    <t>1 Gardners Way</t>
+  </si>
+  <si>
+    <t>enfield</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Enfield/Mayfield-Place/100026186/</t>
+  </si>
+  <si>
+    <t>Mill Commons</t>
+  </si>
+  <si>
+    <t>1 Millers Way</t>
+  </si>
+  <si>
+    <t>simsbury</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Simsbury/Mill-Commons/187207/</t>
+  </si>
+  <si>
+    <t>The Grand on Ann</t>
+  </si>
+  <si>
+    <t>201 Ann Uccello Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/The-Grand-on-Ann/100022862/</t>
+  </si>
+  <si>
+    <t>The Hawthorne</t>
+  </si>
+  <si>
+    <t>2 Francis Way</t>
+  </si>
+  <si>
+    <t>bloomfield</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Bloomfield/The-Hawthorne/43308/</t>
+  </si>
+  <si>
+    <t>Capewell Lofts</t>
+  </si>
+  <si>
+    <t>57 Charter Oak Avenue</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/Capewell-Lofts/100030438/</t>
+  </si>
+  <si>
+    <t>Front Street Lofts</t>
+  </si>
+  <si>
+    <t>20 Front Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/Front-Street-Lofts/100026450/</t>
+  </si>
+  <si>
+    <t>Highcroft Apartments</t>
+  </si>
+  <si>
+    <t>1100 Highcroft Pl</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Simsbury/Highcroft-Apartments/100028378/</t>
+  </si>
+  <si>
+    <t>Glenbrook at Rocky Hill</t>
+  </si>
+  <si>
+    <t>100 Robinson Road</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Rocky-Hill/Glenbrook-at-Rocky-Hill/80144/</t>
+  </si>
+  <si>
+    <t>Deer Valley North</t>
+  </si>
+  <si>
+    <t>160 Windermere Avenue</t>
+  </si>
+  <si>
+    <t>ellington</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Ellington/Deer-Valley-North/192171/</t>
+  </si>
+  <si>
+    <t>Stonegate Apartments</t>
+  </si>
+  <si>
+    <t>1150-1160 South Main Street</t>
+  </si>
+  <si>
+    <t>middletown</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Middletown/Stonegate-Apartments/80704/</t>
+  </si>
+  <si>
+    <t>The Vintage At The Grove</t>
+  </si>
+  <si>
+    <t>1500 Horizon Way</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/The-Vintage-At-The-Grove/78118/</t>
+  </si>
+  <si>
+    <t>The Place at Catherines Way</t>
+  </si>
+  <si>
+    <t>30 Catherines Way</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/The-Place-at-Catherines-Way/2603/</t>
+  </si>
+  <si>
+    <t>Lofts At The Mills</t>
+  </si>
+  <si>
+    <t>91 Elm Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/Lofts-At-The-Mills/24035/</t>
+  </si>
+  <si>
+    <t>Aspen Woods</t>
+  </si>
+  <si>
+    <t>39 Buckland Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/Aspen-Woods/2639/</t>
+  </si>
+  <si>
+    <t>The Pavilions</t>
+  </si>
+  <si>
+    <t>345 Buckland Hills Drive</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/The-Pavilions/2792/</t>
+  </si>
+  <si>
+    <t>Aspen Highlands</t>
+  </si>
+  <si>
+    <t>265 Slater Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/Aspen-Highlands/41690/</t>
+  </si>
+  <si>
+    <t>Manchester Villager</t>
+  </si>
+  <si>
+    <t>17 Sycamore Lane</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/Manchester-Villager/100026946/</t>
+  </si>
+  <si>
+    <t>Damato Apartments</t>
+  </si>
+  <si>
+    <t>240 New State Road</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/Damato-Apartments/83673/</t>
+  </si>
+  <si>
+    <t>The Oaks</t>
+  </si>
+  <si>
+    <t>149 Tudor Lane</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/The-Oaks/45298/</t>
+  </si>
+  <si>
+    <t>Ribbon Mill Apartments</t>
+  </si>
+  <si>
+    <t>150 Pine Street #105</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/Ribbon-Mill-Apartments/2833/</t>
+  </si>
+  <si>
+    <t>Furnished Studio - Hartford - Manchester</t>
+  </si>
+  <si>
+    <t>340 Tolland Tpke.</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/Furnished-Studio-Hartford-Manchester/185890/</t>
+  </si>
+  <si>
+    <t>Brook Haven Apartments</t>
+  </si>
+  <si>
+    <t>466 West Middle Turnpike</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/Brook-Haven-Apartments/100011973/</t>
+  </si>
+  <si>
+    <t>Velvet Mill Apartments</t>
+  </si>
+  <si>
+    <t>185 Pine St</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/Velvet-Mill-Apartments/100021492/</t>
+  </si>
+  <si>
+    <t>Manchester Main</t>
+  </si>
+  <si>
+    <t>208-210 Main Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/Manchester-Main/189199/</t>
+  </si>
+  <si>
+    <t>Parkview Garden Apartments</t>
+  </si>
+  <si>
+    <t>1323 Burnside Ave</t>
+  </si>
+  <si>
+    <t>east_hartford</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/East-Hartford/Parkview-Garden-Apartments/188253/</t>
+  </si>
+  <si>
+    <t>Tempo at Evergreen Walk Apartments</t>
+  </si>
+  <si>
+    <t>50 Andrew&amp;#39;s Way</t>
+  </si>
+  <si>
+    <t>south_windsor</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/South-Windsor/Tempo-at-Evergreen-Walk-Apartments/100030928/</t>
+  </si>
+  <si>
+    <t>Wickham Gardens Condominiums</t>
+  </si>
+  <si>
+    <t>1267 Burnside Ave</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/East-Hartford/Wickham-Gardens-Condominiums/100027835/</t>
+  </si>
+  <si>
+    <t>Hillcrest - Senior 62+ Community</t>
+  </si>
+  <si>
+    <t>25 Gerber Rd E</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/South-Windsor/Hillcrest-Senior-62+-Community/100018900/</t>
+  </si>
+  <si>
+    <t>Silver Brick Place</t>
+  </si>
+  <si>
+    <t>905 Burnside Ave</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/East-Hartford/Silver-Brick-Place/100018928/</t>
+  </si>
+  <si>
+    <t>The Mansions At Hockanum Crossing</t>
+  </si>
+  <si>
+    <t>75 Hockanum Boulevard</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon/The-Mansions-At-Hockanum-Crossing/20505/</t>
+  </si>
+  <si>
+    <t>Tolland Street Apartments</t>
+  </si>
+  <si>
+    <t>490 Tolland Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/East-Hartford/Tolland-Street-Apartments/89150/</t>
+  </si>
+  <si>
+    <t>Woodcliff Estates</t>
+  </si>
+  <si>
+    <t>181 Nutmeg Lane</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/East-Hartford/Woodcliff-Estates/2816/</t>
+  </si>
+  <si>
+    <t>Addison Mill Apartments</t>
+  </si>
+  <si>
+    <t>64 Addison Road</t>
+  </si>
+  <si>
+    <t>glastonbury</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Glastonbury/Addison-Mill-Apartments/83011/</t>
+  </si>
+  <si>
+    <t>Eastbrook Towers</t>
+  </si>
+  <si>
+    <t>40 Cumberland Drive</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/East-Hartford/Eastbrook-Towers/100026106/</t>
+  </si>
+  <si>
+    <t>Briar Knoll Apts</t>
+  </si>
+  <si>
+    <t>401-91 Talcottville Rd.</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon/Briar-Knoll-Apts/2872/</t>
+  </si>
+  <si>
+    <t>Willowbrook</t>
+  </si>
+  <si>
+    <t>335 Center Road</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon/Willowbrook/180003/</t>
+  </si>
+  <si>
+    <t>Griswold Gardens</t>
+  </si>
+  <si>
+    <t>30 Salem Court</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Glastonbury/Griswold-Gardens/2783/</t>
+  </si>
+  <si>
+    <t>Countrywood At Vernon</t>
+  </si>
+  <si>
+    <t>631 Talcottville Road</t>
+  </si>
+  <si>
+    <t>vernon_rockville</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon-Rockville/Countrywood-At-Vernon/187889/</t>
+  </si>
+  <si>
+    <t>Candlelight Apartments</t>
+  </si>
+  <si>
+    <t>80 House Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Glastonbury/Candlelight-Apartments/80707/</t>
+  </si>
+  <si>
+    <t>Colonial Village Apartments</t>
+  </si>
+  <si>
+    <t>53 Salmon Brook Drive</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Glastonbury/Colonial-Village-Apartments/168006/</t>
+  </si>
+  <si>
+    <t>Woodside Apartments</t>
+  </si>
+  <si>
+    <t>16 Spring Street and 45 Olmsted Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/East-Hartford/Woodside-Apartments/100019277/</t>
+  </si>
+  <si>
+    <t>Glastonbury Centre</t>
+  </si>
+  <si>
+    <t>28 Nanel Drive Suite B</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Glastonbury/Glastonbury-Centre/42540/</t>
+  </si>
+  <si>
+    <t>The Tannery</t>
+  </si>
+  <si>
+    <t>917 New London Turnpike</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Glastonbury/The-Tannery/100031373/</t>
+  </si>
+  <si>
+    <t>Brookside Commons</t>
+  </si>
+  <si>
+    <t>235 Main Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/East-Hartford/Brookside-Commons/46062/</t>
+  </si>
+  <si>
+    <t>Vernon Gardens Apartments</t>
+  </si>
+  <si>
+    <t>695 Talcottville Road 42b</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon/Vernon-Gardens-Apartments/80179/</t>
+  </si>
+  <si>
+    <t>North/Southgate Apartments</t>
+  </si>
+  <si>
+    <t>300 South Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon/North_Southgate-Apartments/85948/</t>
+  </si>
+  <si>
+    <t>Highland Apartments of Vernon</t>
+  </si>
+  <si>
+    <t>14 Highland Avenue</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon/Highland-Apartments-of-Vernon/163047/</t>
+  </si>
+  <si>
+    <t>Westar Apartments</t>
+  </si>
+  <si>
+    <t>94 West Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon/Westar-Apartments/100026945/</t>
+  </si>
+  <si>
+    <t>Regency I</t>
+  </si>
+  <si>
+    <t>30 Nye St. Vernon</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon/Regency-I/100029521/</t>
+  </si>
+  <si>
+    <t>Pinney Hill</t>
+  </si>
+  <si>
+    <t>26 Pinney Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Ellington/Pinney-Hill/10465/</t>
+  </si>
+  <si>
+    <t>Santini Villa Apartments</t>
+  </si>
+  <si>
+    <t>1125 Hartford Turnpike</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon/Santini-Villa-Apartments/8779/</t>
+  </si>
+  <si>
+    <t>Florence Mill- Senior Housing</t>
+  </si>
+  <si>
+    <t>121 West Main Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon/Florence-Mill--Senior-Housing/187978/</t>
+  </si>
+  <si>
+    <t>Cornfield Apartments</t>
+  </si>
+  <si>
+    <t>60 Pinney Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Ellington/Cornfield-Apartments/77506/</t>
+  </si>
+  <si>
+    <t>Deer Valley Townhomes</t>
+  </si>
+  <si>
+    <t>155 Windermere Avenue</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Ellington/Deer-Valley-Townhomes/36315/</t>
+  </si>
+  <si>
+    <t>Ledgecrest Apartments</t>
+  </si>
+  <si>
+    <t>79 Brooklyn Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon/Ledgecrest-Apartments/46762/</t>
+  </si>
+  <si>
+    <t>Colt Gateway</t>
+  </si>
+  <si>
+    <t>140 Huyshope Avenue</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/Colt-Gateway/36060/</t>
+  </si>
+  <si>
+    <t>Deerfield Windsor Apartments</t>
+  </si>
+  <si>
+    <t>782B Windsor Avenue</t>
+  </si>
+  <si>
+    <t>windsor</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Windsor/Deerfield-Windsor-Apartments/46702/</t>
+  </si>
+  <si>
+    <t>Lofts At Main &amp;amp; Temple</t>
+  </si>
+  <si>
+    <t>21 Temple Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/Lofts-At-Main-~-Temple/65731/</t>
+  </si>
+  <si>
+    <t>Loom City Lofts</t>
+  </si>
+  <si>
+    <t>215 E Main Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon-Rockville/Loom-City-Lofts/100027350/</t>
+  </si>
+  <si>
+    <t>777 Main</t>
+  </si>
+  <si>
+    <t>777 Main St</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/777-Main/100023297/</t>
+  </si>
+  <si>
+    <t>Trumbull on the Park</t>
+  </si>
+  <si>
+    <t>100 Trumbull Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/Trumbull-on-the-Park/47495/</t>
+  </si>
+  <si>
+    <t>250 MAIN</t>
+  </si>
+  <si>
+    <t>250 Main Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/250-MAIN/2634/</t>
+  </si>
+  <si>
+    <t>Bushnell On The Park</t>
+  </si>
+  <si>
+    <t>100 Wells Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/Bushnell-On-The-Park/16621/</t>
+  </si>
+  <si>
+    <t>Autumn Chase</t>
+  </si>
+  <si>
+    <t>115 West Road</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Ellington/Autumn-Chase/2630/</t>
+  </si>
+  <si>
+    <t>Windsor Station</t>
+  </si>
+  <si>
+    <t>55 Mechanic St</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Windsor/Windsor-Station/100030891/</t>
+  </si>
+  <si>
+    <t>The Hollander Building</t>
+  </si>
+  <si>
+    <t>410 Asylum Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/The-Hollander-Building/86419/</t>
+  </si>
+  <si>
+    <t>Capitol View</t>
+  </si>
+  <si>
+    <t>600 Asylum Avenue</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/Capitol-View/2823/</t>
+  </si>
+  <si>
+    <t>Capitol Lofts</t>
+  </si>
+  <si>
+    <t>390 Capitol Ave</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/Capitol-Lofts/100030373/</t>
+  </si>
+  <si>
+    <t>Colonial Arms Apartments</t>
+  </si>
+  <si>
+    <t>966 Silas Deane Hwy</t>
+  </si>
+  <si>
+    <t>wethersfield</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Wethersfield/Colonial-Arms-Apartments/189245/</t>
+  </si>
+  <si>
+    <t>16 Niles Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/16-Niles-Street/79624/</t>
+  </si>
+  <si>
+    <t>Parkview Towers</t>
+  </si>
+  <si>
+    <t>967 Asylum Avenue</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/Parkview-Towers/2663/</t>
+  </si>
+  <si>
+    <t>Johnny Appleseed</t>
+  </si>
+  <si>
+    <t>200 West Road</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Ellington/Johnny-Appleseed/12450/</t>
+  </si>
+  <si>
+    <t>Park Place Towers</t>
+  </si>
+  <si>
+    <t>24 Park Place</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/Park-Place-Towers/2838/</t>
+  </si>
+  <si>
+    <t>Greenfield Village</t>
+  </si>
+  <si>
+    <t>1800 Silas Deane Hwy</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Rocky-Hill/Greenfield-Village/34075/</t>
+  </si>
+  <si>
+    <t>Clemens Place Apartments</t>
+  </si>
+  <si>
+    <t>16 Owen Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/Clemens-Place-Apartments/2788/</t>
+  </si>
+  <si>
+    <t>Stepny Place Apartments</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Rocky-Hill/Stepny-Place-Apartments/2805/</t>
+  </si>
+  <si>
+    <t>Rivers Bend</t>
+  </si>
+  <si>
+    <t>One Phaeton Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Windsor/Rivers-Bend/2797/</t>
+  </si>
+  <si>
+    <t>Mill Pond Village</t>
+  </si>
+  <si>
+    <t>59 Mill Pond Road</t>
+  </si>
+  <si>
+    <t>broad_brook</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Broad-Brook/Mill-Pond-Village/2834/</t>
+  </si>
+  <si>
+    <t>The Village At Wethersfield</t>
+  </si>
+  <si>
+    <t>79 Village Drive</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Wethersfield/The-Village-At-Wethersfield/2829/</t>
+  </si>
+  <si>
+    <t>322 Hudson St</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/322-Hudson-St/2027228/</t>
+  </si>
+  <si>
+    <t>Woodmere Place - Pets Allowed (No fee) - FREE Heat</t>
+  </si>
+  <si>
+    <t>655 Talcottville Road</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon/655-Talcottville-Road/r2092073/</t>
+  </si>
+  <si>
+    <t>26 Congress Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/26-Congress-Street/LV26851410/</t>
+  </si>
+  <si>
+    <t>322 Hudson Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/322-Hudson-Street/LV26929258/</t>
+  </si>
+  <si>
+    <t>12 South Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/12-South-Street/LV26861083/</t>
+  </si>
+  <si>
+    <t>905 Park Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/905-Park-Street/LV26981547/</t>
+  </si>
+  <si>
+    <t>12 Willard Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/12-Willard-Street/LV26981544/</t>
+  </si>
+  <si>
+    <t>252 Sisson Avenue</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/252-Sisson-Avenue/LV26741966/</t>
+  </si>
+  <si>
+    <t>37 Dorothy Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/37-Dorothy-Street/LV26984015/</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,14 +909,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,36 +1212,2740 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1423</v>
+      </c>
+      <c r="F3">
+        <v>41.8506</v>
+      </c>
+      <c r="G3">
+        <v>-72.448400000000007</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1558</v>
+      </c>
+      <c r="F4">
+        <v>41.643000000000001</v>
+      </c>
+      <c r="G4">
+        <v>-72.668999999999997</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1603</v>
+      </c>
+      <c r="F5">
+        <v>41.645499999999998</v>
+      </c>
+      <c r="G5">
+        <v>-72.647599999999997</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1488</v>
+      </c>
+      <c r="F6">
+        <v>41.790199999999999</v>
+      </c>
+      <c r="G6">
+        <v>-72.557100000000005</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1346</v>
+      </c>
+      <c r="F7">
+        <v>41.767699999999998</v>
+      </c>
+      <c r="G7">
+        <v>-72.6708</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1676</v>
+      </c>
+      <c r="F8">
+        <v>42.03</v>
+      </c>
+      <c r="G8">
+        <v>-72.549800000000005</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1983</v>
+      </c>
+      <c r="F9">
+        <v>41.868499999999997</v>
+      </c>
+      <c r="G9">
+        <v>-72.813599999999994</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1489</v>
+      </c>
+      <c r="F10">
+        <v>41.7682</v>
+      </c>
+      <c r="G10">
+        <v>-72.678100000000001</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>1729</v>
+      </c>
+      <c r="F11">
+        <v>41.811500000000002</v>
+      </c>
+      <c r="G11">
+        <v>-72.735299999999995</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>1552</v>
+      </c>
+      <c r="F12">
+        <v>41.757599999999996</v>
+      </c>
+      <c r="G12">
+        <v>-72.671199999999999</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>1556</v>
+      </c>
+      <c r="F13">
+        <v>41.762999999999998</v>
+      </c>
+      <c r="G13">
+        <v>-72.672600000000003</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>1606</v>
+      </c>
+      <c r="F14">
+        <v>41.857700000000001</v>
+      </c>
+      <c r="G14">
+        <v>-72.822000000000003</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>1185</v>
+      </c>
+      <c r="F15">
+        <v>41.6374</v>
+      </c>
+      <c r="G15">
+        <v>-72.683800000000005</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>1885</v>
+      </c>
+      <c r="F16">
+        <v>41.877099999999999</v>
+      </c>
+      <c r="G16">
+        <v>-72.489400000000003</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>892</v>
+      </c>
+      <c r="F17">
+        <v>41.526699999999998</v>
+      </c>
+      <c r="G17">
+        <v>-72.663499999999999</v>
+      </c>
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>1485</v>
+      </c>
+      <c r="F18">
+        <v>41.801200000000001</v>
+      </c>
+      <c r="G18">
+        <v>-72.543899999999994</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>1253</v>
+      </c>
+      <c r="F19">
+        <v>41.803899999999999</v>
+      </c>
+      <c r="G19">
+        <v>-72.534300000000002</v>
+      </c>
+      <c r="H19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>1102</v>
+      </c>
+      <c r="F20">
+        <v>41.767600000000002</v>
+      </c>
+      <c r="G20">
+        <v>-72.528800000000004</v>
+      </c>
+      <c r="H20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>1290</v>
+      </c>
+      <c r="F21">
+        <v>41.797499999999999</v>
+      </c>
+      <c r="G21">
+        <v>-72.550799999999995</v>
+      </c>
+      <c r="H21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>1281</v>
+      </c>
+      <c r="F22">
+        <v>41.808199999999999</v>
+      </c>
+      <c r="G22">
+        <v>-72.540999999999997</v>
+      </c>
+      <c r="H22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>1300</v>
+      </c>
+      <c r="F23">
+        <v>41.811900000000001</v>
+      </c>
+      <c r="G23">
+        <v>-72.535399999999996</v>
+      </c>
+      <c r="H23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>875</v>
+      </c>
+      <c r="F24">
+        <v>41.763800000000003</v>
+      </c>
+      <c r="G24">
+        <v>-72.5077</v>
+      </c>
+      <c r="H24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>962</v>
+      </c>
+      <c r="F25">
+        <v>41.786200000000001</v>
+      </c>
+      <c r="G25">
+        <v>-72.5548</v>
+      </c>
+      <c r="H25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>1028</v>
+      </c>
+      <c r="F26">
+        <v>41.803899999999999</v>
+      </c>
+      <c r="G26">
+        <v>-72.514399999999995</v>
+      </c>
+      <c r="H26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>1352</v>
+      </c>
+      <c r="F27">
+        <v>41.768000000000001</v>
+      </c>
+      <c r="G27">
+        <v>-72.530299999999997</v>
+      </c>
+      <c r="H27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>1470</v>
+      </c>
+      <c r="F28">
+        <v>41.810400000000001</v>
+      </c>
+      <c r="G28">
+        <v>-72.520600000000002</v>
+      </c>
+      <c r="H28" t="s">
+        <v>87</v>
+      </c>
+      <c r="I28" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>1037</v>
+      </c>
+      <c r="F29">
+        <v>41.780900000000003</v>
+      </c>
+      <c r="G29">
+        <v>-72.545199999999994</v>
+      </c>
+      <c r="H29" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>1194</v>
+      </c>
+      <c r="F30">
+        <v>41.767000000000003</v>
+      </c>
+      <c r="G30">
+        <v>-72.529499999999999</v>
+      </c>
+      <c r="H30" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>875</v>
+      </c>
+      <c r="F31">
+        <v>41.794899999999998</v>
+      </c>
+      <c r="G31">
+        <v>-72.525199999999998</v>
+      </c>
+      <c r="H31" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>850</v>
+      </c>
+      <c r="F32">
+        <v>41.782600000000002</v>
+      </c>
+      <c r="G32">
+        <v>-72.581199999999995</v>
+      </c>
+      <c r="H32" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>1695</v>
+      </c>
+      <c r="F33">
+        <v>41.813499999999998</v>
+      </c>
+      <c r="G33">
+        <v>-72.555899999999994</v>
+      </c>
+      <c r="H33" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>893</v>
+      </c>
+      <c r="F34">
+        <v>41.783200000000001</v>
+      </c>
+      <c r="G34">
+        <v>-72.583399999999997</v>
+      </c>
+      <c r="H34" t="s">
+        <v>107</v>
+      </c>
+      <c r="I34" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>1019</v>
+      </c>
+      <c r="F35">
+        <v>41.8232</v>
+      </c>
+      <c r="G35">
+        <v>-72.505099999999999</v>
+      </c>
+      <c r="H35" t="s">
+        <v>110</v>
+      </c>
+      <c r="I35" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>1099</v>
+      </c>
+      <c r="F36">
+        <v>41.781300000000002</v>
+      </c>
+      <c r="G36">
+        <v>-72.599400000000003</v>
+      </c>
+      <c r="H36" t="s">
+        <v>113</v>
+      </c>
+      <c r="I36" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>1257</v>
+      </c>
+      <c r="F37">
+        <v>41.841999999999999</v>
+      </c>
+      <c r="G37">
+        <v>-72.498699999999999</v>
+      </c>
+      <c r="H37" t="s">
+        <v>116</v>
+      </c>
+      <c r="I37" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>805</v>
+      </c>
+      <c r="F38">
+        <v>41.781799999999997</v>
+      </c>
+      <c r="G38">
+        <v>-72.613299999999995</v>
+      </c>
+      <c r="H38" t="s">
+        <v>119</v>
+      </c>
+      <c r="I38" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>893</v>
+      </c>
+      <c r="F39">
+        <v>41.767899999999997</v>
+      </c>
+      <c r="G39">
+        <v>-72.614599999999996</v>
+      </c>
+      <c r="H39" t="s">
+        <v>122</v>
+      </c>
+      <c r="I39" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>1803</v>
+      </c>
+      <c r="F40">
+        <v>41.719000000000001</v>
+      </c>
+      <c r="G40">
+        <v>-72.576400000000007</v>
+      </c>
+      <c r="H40" t="s">
+        <v>126</v>
+      </c>
+      <c r="I40" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>868</v>
+      </c>
+      <c r="F41">
+        <v>41.765900000000002</v>
+      </c>
+      <c r="G41">
+        <v>-72.616100000000003</v>
+      </c>
+      <c r="H41" t="s">
+        <v>129</v>
+      </c>
+      <c r="I41" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>1193</v>
+      </c>
+      <c r="F42">
+        <v>41.844200000000001</v>
+      </c>
+      <c r="G42">
+        <v>-72.487300000000005</v>
+      </c>
+      <c r="H42" t="s">
+        <v>132</v>
+      </c>
+      <c r="I42" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>820</v>
+      </c>
+      <c r="F43">
+        <v>41.85</v>
+      </c>
+      <c r="G43">
+        <v>-72.481800000000007</v>
+      </c>
+      <c r="H43" t="s">
+        <v>135</v>
+      </c>
+      <c r="I43" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>1287</v>
+      </c>
+      <c r="F44">
+        <v>41.7239</v>
+      </c>
+      <c r="G44">
+        <v>-72.603999999999999</v>
+      </c>
+      <c r="H44" t="s">
+        <v>138</v>
+      </c>
+      <c r="I44" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>913</v>
+      </c>
+      <c r="F45">
+        <v>41.8551</v>
+      </c>
+      <c r="G45">
+        <v>-72.483999999999995</v>
+      </c>
+      <c r="H45" t="s">
+        <v>142</v>
+      </c>
+      <c r="I45" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>975</v>
+      </c>
+      <c r="F46">
+        <v>41.716200000000001</v>
+      </c>
+      <c r="G46">
+        <v>-72.601699999999994</v>
+      </c>
+      <c r="H46" t="s">
+        <v>145</v>
+      </c>
+      <c r="I46" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>1295</v>
+      </c>
+      <c r="F47">
+        <v>41.7166</v>
+      </c>
+      <c r="G47">
+        <v>-72.602800000000002</v>
+      </c>
+      <c r="H47" t="s">
+        <v>148</v>
+      </c>
+      <c r="I47" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>775</v>
+      </c>
+      <c r="F48">
+        <v>41.773099999999999</v>
+      </c>
+      <c r="G48">
+        <v>-72.636399999999995</v>
+      </c>
+      <c r="H48" t="s">
+        <v>151</v>
+      </c>
+      <c r="I48" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>1195</v>
+      </c>
+      <c r="F49">
+        <v>41.712600000000002</v>
+      </c>
+      <c r="G49">
+        <v>-72.603099999999998</v>
+      </c>
+      <c r="H49" t="s">
+        <v>154</v>
+      </c>
+      <c r="I49" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>1776</v>
+      </c>
+      <c r="F50">
+        <v>41.703699999999998</v>
+      </c>
+      <c r="G50">
+        <v>-72.590400000000002</v>
+      </c>
+      <c r="H50" t="s">
+        <v>157</v>
+      </c>
+      <c r="I50" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>889</v>
+      </c>
+      <c r="F51">
+        <v>41.744399999999999</v>
+      </c>
+      <c r="G51">
+        <v>-72.6327</v>
+      </c>
+      <c r="H51" t="s">
+        <v>160</v>
+      </c>
+      <c r="I51" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>1122</v>
+      </c>
+      <c r="F52">
+        <v>41.860399999999998</v>
+      </c>
+      <c r="G52">
+        <v>-72.483400000000003</v>
+      </c>
+      <c r="H52" t="s">
+        <v>163</v>
+      </c>
+      <c r="I52" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>914</v>
+      </c>
+      <c r="F53">
+        <v>41.856499999999997</v>
+      </c>
+      <c r="G53">
+        <v>-72.462199999999996</v>
+      </c>
+      <c r="H53" t="s">
+        <v>166</v>
+      </c>
+      <c r="I53" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>875</v>
+      </c>
+      <c r="F54">
+        <v>41.860500000000002</v>
+      </c>
+      <c r="G54">
+        <v>-72.4649</v>
+      </c>
+      <c r="H54" t="s">
+        <v>169</v>
+      </c>
+      <c r="I54" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>767</v>
+      </c>
+      <c r="F55">
+        <v>41.863100000000003</v>
+      </c>
+      <c r="G55">
+        <v>-72.466700000000003</v>
+      </c>
+      <c r="H55" t="s">
+        <v>172</v>
+      </c>
+      <c r="I55" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>772</v>
+      </c>
+      <c r="F56">
+        <v>41.863500000000002</v>
+      </c>
+      <c r="G56">
+        <v>-72.463899999999995</v>
+      </c>
+      <c r="H56" t="s">
+        <v>175</v>
+      </c>
+      <c r="I56" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>950</v>
+      </c>
+      <c r="F57">
+        <v>41.871499999999997</v>
+      </c>
+      <c r="G57">
+        <v>-72.490499999999997</v>
+      </c>
+      <c r="H57" t="s">
+        <v>178</v>
+      </c>
+      <c r="I57" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>1118</v>
+      </c>
+      <c r="F58">
+        <v>41.8553</v>
+      </c>
+      <c r="G58">
+        <v>-72.443100000000001</v>
+      </c>
+      <c r="H58" t="s">
+        <v>181</v>
+      </c>
+      <c r="I58" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>182</v>
+      </c>
+      <c r="B59" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>1024</v>
+      </c>
+      <c r="F59">
+        <v>41.865200000000002</v>
+      </c>
+      <c r="G59">
+        <v>-72.453100000000006</v>
+      </c>
+      <c r="H59" t="s">
+        <v>184</v>
+      </c>
+      <c r="I59" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>971</v>
+      </c>
+      <c r="F60">
+        <v>41.875700000000002</v>
+      </c>
+      <c r="G60">
+        <v>-72.486599999999996</v>
+      </c>
+      <c r="H60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I60" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>1657</v>
+      </c>
+      <c r="F61">
+        <v>41.877600000000001</v>
+      </c>
+      <c r="G61">
+        <v>-72.486199999999997</v>
+      </c>
+      <c r="H61" t="s">
+        <v>190</v>
+      </c>
+      <c r="I61" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>895</v>
+      </c>
+      <c r="F62">
+        <v>41.8658</v>
+      </c>
+      <c r="G62">
+        <v>-72.4482</v>
+      </c>
+      <c r="H62" t="s">
+        <v>193</v>
+      </c>
+      <c r="I62" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>1539</v>
+      </c>
+      <c r="F63">
+        <v>41.756399999999999</v>
+      </c>
+      <c r="G63">
+        <v>-72.665199999999999</v>
+      </c>
+      <c r="H63" t="s">
+        <v>196</v>
+      </c>
+      <c r="I63" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>197</v>
+      </c>
+      <c r="B64" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>967</v>
+      </c>
+      <c r="F64">
+        <v>41.8249</v>
+      </c>
+      <c r="G64">
+        <v>-72.656199999999998</v>
+      </c>
+      <c r="H64" t="s">
+        <v>200</v>
+      </c>
+      <c r="I64" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>201</v>
+      </c>
+      <c r="B65" t="s">
+        <v>202</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>1757</v>
+      </c>
+      <c r="F65">
+        <v>41.767499999999998</v>
+      </c>
+      <c r="G65">
+        <v>-72.672600000000003</v>
+      </c>
+      <c r="H65" t="s">
+        <v>203</v>
+      </c>
+      <c r="I65" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>204</v>
+      </c>
+      <c r="B66" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>892</v>
+      </c>
+      <c r="F66">
+        <v>41.867800000000003</v>
+      </c>
+      <c r="G66">
+        <v>-72.432900000000004</v>
+      </c>
+      <c r="H66" t="s">
+        <v>206</v>
+      </c>
+      <c r="I66" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>207</v>
+      </c>
+      <c r="B67" t="s">
+        <v>208</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>2025</v>
+      </c>
+      <c r="F67">
+        <v>41.765999999999998</v>
+      </c>
+      <c r="G67">
+        <v>-72.673400000000001</v>
+      </c>
+      <c r="H67" t="s">
+        <v>209</v>
+      </c>
+      <c r="I67" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>210</v>
+      </c>
+      <c r="B68" t="s">
+        <v>211</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>1472</v>
+      </c>
+      <c r="F68">
+        <v>41.766100000000002</v>
+      </c>
+      <c r="G68">
+        <v>-72.676100000000005</v>
+      </c>
+      <c r="H68" t="s">
+        <v>212</v>
+      </c>
+      <c r="I68" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>213</v>
+      </c>
+      <c r="B69" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>908</v>
+      </c>
+      <c r="F69">
+        <v>41.758699999999997</v>
+      </c>
+      <c r="G69">
+        <v>-72.674999999999997</v>
+      </c>
+      <c r="H69" t="s">
+        <v>215</v>
+      </c>
+      <c r="I69" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>216</v>
+      </c>
+      <c r="B70" t="s">
+        <v>217</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>1383</v>
+      </c>
+      <c r="F70">
+        <v>41.763599999999997</v>
+      </c>
+      <c r="G70">
+        <v>-72.675899999999999</v>
+      </c>
+      <c r="H70" t="s">
+        <v>218</v>
+      </c>
+      <c r="I70" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>219</v>
+      </c>
+      <c r="B71" t="s">
+        <v>220</v>
+      </c>
+      <c r="C71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>1295</v>
+      </c>
+      <c r="F71">
+        <v>41.883299999999998</v>
+      </c>
+      <c r="G71">
+        <v>-72.464200000000005</v>
+      </c>
+      <c r="H71" t="s">
+        <v>221</v>
+      </c>
+      <c r="I71" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>222</v>
+      </c>
+      <c r="B72" t="s">
+        <v>223</v>
+      </c>
+      <c r="C72" t="s">
+        <v>199</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>1500</v>
+      </c>
+      <c r="F72">
+        <v>41.851399999999998</v>
+      </c>
+      <c r="G72">
+        <v>-72.641499999999994</v>
+      </c>
+      <c r="H72" t="s">
+        <v>224</v>
+      </c>
+      <c r="I72" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>225</v>
+      </c>
+      <c r="B73" t="s">
+        <v>226</v>
+      </c>
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>875</v>
+      </c>
+      <c r="F73">
+        <v>41.767899999999997</v>
+      </c>
+      <c r="G73">
+        <v>-72.682400000000001</v>
+      </c>
+      <c r="H73" t="s">
+        <v>227</v>
+      </c>
+      <c r="I73" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>228</v>
+      </c>
+      <c r="B74" t="s">
+        <v>229</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>1022</v>
+      </c>
+      <c r="F74">
+        <v>41.7682</v>
+      </c>
+      <c r="G74">
+        <v>-72.684799999999996</v>
+      </c>
+      <c r="H74" t="s">
+        <v>230</v>
+      </c>
+      <c r="I74" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>231</v>
+      </c>
+      <c r="B75" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>1203</v>
+      </c>
+      <c r="F75">
+        <v>41.764000000000003</v>
+      </c>
+      <c r="G75">
+        <v>-72.688400000000001</v>
+      </c>
+      <c r="H75" t="s">
+        <v>233</v>
+      </c>
+      <c r="I75" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>234</v>
+      </c>
+      <c r="B76" t="s">
+        <v>235</v>
+      </c>
+      <c r="C76" t="s">
+        <v>236</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>895</v>
+      </c>
+      <c r="F76">
+        <v>41.697000000000003</v>
+      </c>
+      <c r="G76">
+        <v>-72.656899999999993</v>
+      </c>
+      <c r="H76" t="s">
+        <v>237</v>
+      </c>
+      <c r="I76" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>238</v>
+      </c>
+      <c r="B77" t="s">
+        <v>238</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>650</v>
+      </c>
+      <c r="F77">
+        <v>41.769300000000001</v>
+      </c>
+      <c r="G77">
+        <v>-72.694800000000001</v>
+      </c>
+      <c r="H77" t="s">
+        <v>239</v>
+      </c>
+      <c r="I77" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>240</v>
+      </c>
+      <c r="B78" t="s">
+        <v>241</v>
+      </c>
+      <c r="C78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>850</v>
+      </c>
+      <c r="F78">
+        <v>41.770699999999998</v>
+      </c>
+      <c r="G78">
+        <v>-72.695300000000003</v>
+      </c>
+      <c r="H78" t="s">
+        <v>242</v>
+      </c>
+      <c r="I78" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>243</v>
+      </c>
+      <c r="B79" t="s">
+        <v>244</v>
+      </c>
+      <c r="C79" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>962</v>
+      </c>
+      <c r="F79">
+        <v>41.897500000000001</v>
+      </c>
+      <c r="G79">
+        <v>-72.4602</v>
+      </c>
+      <c r="H79" t="s">
+        <v>245</v>
+      </c>
+      <c r="I79" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>246</v>
+      </c>
+      <c r="B80" t="s">
+        <v>247</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>1060</v>
+      </c>
+      <c r="F80">
+        <v>41.759700000000002</v>
+      </c>
+      <c r="G80">
+        <v>-72.696899999999999</v>
+      </c>
+      <c r="H80" t="s">
+        <v>248</v>
+      </c>
+      <c r="I80" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>249</v>
+      </c>
+      <c r="B81" t="s">
+        <v>250</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>1174</v>
+      </c>
+      <c r="F81">
+        <v>41.6785</v>
+      </c>
+      <c r="G81">
+        <v>-72.647800000000004</v>
+      </c>
+      <c r="H81" t="s">
+        <v>251</v>
+      </c>
+      <c r="I81" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>252</v>
+      </c>
+      <c r="B82" t="s">
+        <v>253</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>948</v>
+      </c>
+      <c r="F82">
+        <v>41.766399999999997</v>
+      </c>
+      <c r="G82">
+        <v>-72.704899999999995</v>
+      </c>
+      <c r="H82" t="s">
+        <v>254</v>
+      </c>
+      <c r="I82" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>255</v>
+      </c>
+      <c r="B83" t="s">
+        <v>250</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>1416</v>
+      </c>
+      <c r="F83">
+        <v>41.6768</v>
+      </c>
+      <c r="G83">
+        <v>-72.650400000000005</v>
+      </c>
+      <c r="H83" t="s">
+        <v>256</v>
+      </c>
+      <c r="I83" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>257</v>
+      </c>
+      <c r="B84" t="s">
+        <v>258</v>
+      </c>
+      <c r="C84" t="s">
+        <v>199</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>1079</v>
+      </c>
+      <c r="F84">
+        <v>41.873199999999997</v>
+      </c>
+      <c r="G84">
+        <v>-72.657799999999995</v>
+      </c>
+      <c r="H84" t="s">
+        <v>259</v>
+      </c>
+      <c r="I84" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>260</v>
+      </c>
+      <c r="B85" t="s">
+        <v>261</v>
+      </c>
+      <c r="C85" t="s">
+        <v>262</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>929</v>
+      </c>
+      <c r="F85">
+        <v>41.918399999999998</v>
+      </c>
+      <c r="G85">
+        <v>-72.539400000000001</v>
+      </c>
+      <c r="H85" t="s">
+        <v>263</v>
+      </c>
+      <c r="I85" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>264</v>
+      </c>
+      <c r="B86" t="s">
+        <v>265</v>
+      </c>
+      <c r="C86" t="s">
+        <v>236</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>1395</v>
+      </c>
+      <c r="F86">
+        <v>41.714500000000001</v>
+      </c>
+      <c r="G86">
+        <v>-72.695899999999995</v>
+      </c>
+      <c r="H86" t="s">
+        <v>266</v>
+      </c>
+      <c r="I86" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>267</v>
+      </c>
+      <c r="B87" t="s">
+        <v>267</v>
+      </c>
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87">
+        <v>800</v>
+      </c>
+      <c r="F87">
+        <v>41.759022000000002</v>
+      </c>
+      <c r="G87">
+        <v>-72.677800000000005</v>
+      </c>
+      <c r="H87" t="s">
+        <v>268</v>
+      </c>
+      <c r="I87" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>269</v>
+      </c>
+      <c r="B88" t="s">
+        <v>270</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88">
+        <v>975</v>
+      </c>
+      <c r="F88">
+        <v>41.857700000000001</v>
+      </c>
+      <c r="G88">
+        <v>-72.484899999999996</v>
+      </c>
+      <c r="H88" t="s">
+        <v>271</v>
+      </c>
+      <c r="I88" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>272</v>
+      </c>
+      <c r="B89" t="s">
+        <v>272</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89">
+        <v>800</v>
+      </c>
+      <c r="F89">
+        <v>41.754471000000002</v>
+      </c>
+      <c r="G89">
+        <v>-72.675798</v>
+      </c>
+      <c r="H89" t="s">
+        <v>273</v>
+      </c>
+      <c r="I89" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>274</v>
+      </c>
+      <c r="B90" t="s">
+        <v>274</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>800</v>
+      </c>
+      <c r="F90">
+        <v>41.759022999999999</v>
+      </c>
+      <c r="G90">
+        <v>-72.677806000000004</v>
+      </c>
+      <c r="H90" t="s">
+        <v>275</v>
+      </c>
+      <c r="I90" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>276</v>
+      </c>
+      <c r="B91" t="s">
+        <v>276</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>800</v>
+      </c>
+      <c r="F91">
+        <v>41.736108000000002</v>
+      </c>
+      <c r="G91">
+        <v>-72.671442999999996</v>
+      </c>
+      <c r="H91" t="s">
+        <v>277</v>
+      </c>
+      <c r="I91" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>278</v>
+      </c>
+      <c r="B92" t="s">
+        <v>278</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92">
+        <v>700</v>
+      </c>
+      <c r="F92">
+        <v>41.758152000000003</v>
+      </c>
+      <c r="G92">
+        <v>-72.692545999999993</v>
+      </c>
+      <c r="H92" t="s">
+        <v>279</v>
+      </c>
+      <c r="I92" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>280</v>
+      </c>
+      <c r="B93" t="s">
+        <v>280</v>
+      </c>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>800</v>
+      </c>
+      <c r="F93">
+        <v>41.771082</v>
+      </c>
+      <c r="G93">
+        <v>-72.695193000000003</v>
+      </c>
+      <c r="H93" t="s">
+        <v>281</v>
+      </c>
+      <c r="I93" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>282</v>
+      </c>
+      <c r="B94" t="s">
+        <v>282</v>
+      </c>
+      <c r="C94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>800</v>
+      </c>
+      <c r="F94">
+        <v>41.766001000000003</v>
+      </c>
+      <c r="G94">
+        <v>-72.707052000000004</v>
+      </c>
+      <c r="H94" t="s">
+        <v>283</v>
+      </c>
+      <c r="I94" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>284</v>
+      </c>
+      <c r="B95" t="s">
+        <v>284</v>
+      </c>
+      <c r="C95" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95">
+        <v>800</v>
+      </c>
+      <c r="F95">
+        <v>41.757596999999997</v>
+      </c>
+      <c r="G95">
+        <v>-72.712314000000006</v>
+      </c>
+      <c r="H95" t="s">
+        <v>285</v>
+      </c>
+      <c r="I95" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HousesDB.xlsx
+++ b/HousesDB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="469">
   <si>
     <t>The Grand Lofts</t>
   </si>
@@ -229,6 +229,1200 @@
   </si>
   <si>
     <t>80704</t>
+  </si>
+  <si>
+    <t>The Vintage At The Grove</t>
+  </si>
+  <si>
+    <t>1500 Horizon Way</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/The-Vintage-At-The-Grove/78118/</t>
+  </si>
+  <si>
+    <t>78118</t>
+  </si>
+  <si>
+    <t>The Place at Catherines Way</t>
+  </si>
+  <si>
+    <t>30 Catherines Way</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/The-Place-at-Catherines-Way/2603/</t>
+  </si>
+  <si>
+    <t>2603</t>
+  </si>
+  <si>
+    <t>Lofts At The Mills</t>
+  </si>
+  <si>
+    <t>91 Elm Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/Lofts-At-The-Mills/24035/</t>
+  </si>
+  <si>
+    <t>24035</t>
+  </si>
+  <si>
+    <t>Aspen Woods</t>
+  </si>
+  <si>
+    <t>39 Buckland Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/Aspen-Woods/2639/</t>
+  </si>
+  <si>
+    <t>2639</t>
+  </si>
+  <si>
+    <t>The Pavilions</t>
+  </si>
+  <si>
+    <t>345 Buckland Hills Drive</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/The-Pavilions/2792/</t>
+  </si>
+  <si>
+    <t>2792</t>
+  </si>
+  <si>
+    <t>Aspen Highlands</t>
+  </si>
+  <si>
+    <t>265 Slater Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/Aspen-Highlands/41690/</t>
+  </si>
+  <si>
+    <t>41690</t>
+  </si>
+  <si>
+    <t>Manchester Villager</t>
+  </si>
+  <si>
+    <t>17 Sycamore Lane</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/Manchester-Villager/100026946/</t>
+  </si>
+  <si>
+    <t>100026946</t>
+  </si>
+  <si>
+    <t>Damato Apartments</t>
+  </si>
+  <si>
+    <t>240 New State Road</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/Damato-Apartments/83673/</t>
+  </si>
+  <si>
+    <t>83673</t>
+  </si>
+  <si>
+    <t>The Oaks</t>
+  </si>
+  <si>
+    <t>149 Tudor Lane</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/The-Oaks/45298/</t>
+  </si>
+  <si>
+    <t>45298</t>
+  </si>
+  <si>
+    <t>Ribbon Mill Apartments</t>
+  </si>
+  <si>
+    <t>150 Pine Street #105</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/Ribbon-Mill-Apartments/2833/</t>
+  </si>
+  <si>
+    <t>2833</t>
+  </si>
+  <si>
+    <t>Furnished Studio - Hartford - Manchester</t>
+  </si>
+  <si>
+    <t>340 Tolland Tpke.</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/Furnished-Studio-Hartford-Manchester/185890/</t>
+  </si>
+  <si>
+    <t>185890</t>
+  </si>
+  <si>
+    <t>Brook Haven Apartments</t>
+  </si>
+  <si>
+    <t>466 West Middle Turnpike</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/Brook-Haven-Apartments/100011973/</t>
+  </si>
+  <si>
+    <t>100011973</t>
+  </si>
+  <si>
+    <t>Velvet Mill Apartments</t>
+  </si>
+  <si>
+    <t>185 Pine St</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/Velvet-Mill-Apartments/100021492/</t>
+  </si>
+  <si>
+    <t>100021492</t>
+  </si>
+  <si>
+    <t>Manchester Main</t>
+  </si>
+  <si>
+    <t>208-210 Main Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Manchester/Manchester-Main/189199/</t>
+  </si>
+  <si>
+    <t>189199</t>
+  </si>
+  <si>
+    <t>Parkview Garden Apartments</t>
+  </si>
+  <si>
+    <t>1323 Burnside Ave</t>
+  </si>
+  <si>
+    <t>east_hartford</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/East-Hartford/Parkview-Garden-Apartments/188253/</t>
+  </si>
+  <si>
+    <t>188253</t>
+  </si>
+  <si>
+    <t>Tempo at Evergreen Walk Apartments</t>
+  </si>
+  <si>
+    <t>50 Andrew&amp;#39;s Way</t>
+  </si>
+  <si>
+    <t>south_windsor</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/South-Windsor/Tempo-at-Evergreen-Walk-Apartments/100030928/</t>
+  </si>
+  <si>
+    <t>100030928</t>
+  </si>
+  <si>
+    <t>Wickham Gardens Condominiums</t>
+  </si>
+  <si>
+    <t>1267 Burnside Ave</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/East-Hartford/Wickham-Gardens-Condominiums/100027835/</t>
+  </si>
+  <si>
+    <t>100027835</t>
+  </si>
+  <si>
+    <t>Hillcrest - Senior 62+ Community</t>
+  </si>
+  <si>
+    <t>25 Gerber Rd E</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/South-Windsor/Hillcrest-Senior-62+-Community/100018900/</t>
+  </si>
+  <si>
+    <t>100018900</t>
+  </si>
+  <si>
+    <t>Silver Brick Place</t>
+  </si>
+  <si>
+    <t>905 Burnside Ave</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/East-Hartford/Silver-Brick-Place/100018928/</t>
+  </si>
+  <si>
+    <t>100018928</t>
+  </si>
+  <si>
+    <t>The Mansions At Hockanum Crossing</t>
+  </si>
+  <si>
+    <t>75 Hockanum Boulevard</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon/The-Mansions-At-Hockanum-Crossing/20505/</t>
+  </si>
+  <si>
+    <t>20505</t>
+  </si>
+  <si>
+    <t>Tolland Street Apartments</t>
+  </si>
+  <si>
+    <t>490 Tolland Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/East-Hartford/Tolland-Street-Apartments/89150/</t>
+  </si>
+  <si>
+    <t>89150</t>
+  </si>
+  <si>
+    <t>Woodcliff Estates</t>
+  </si>
+  <si>
+    <t>181 Nutmeg Lane</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/East-Hartford/Woodcliff-Estates/2816/</t>
+  </si>
+  <si>
+    <t>2816</t>
+  </si>
+  <si>
+    <t>Addison Mill Apartments</t>
+  </si>
+  <si>
+    <t>64 Addison Road</t>
+  </si>
+  <si>
+    <t>glastonbury</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Glastonbury/Addison-Mill-Apartments/83011/</t>
+  </si>
+  <si>
+    <t>83011</t>
+  </si>
+  <si>
+    <t>Eastbrook Towers</t>
+  </si>
+  <si>
+    <t>40 Cumberland Drive</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/East-Hartford/Eastbrook-Towers/100026106/</t>
+  </si>
+  <si>
+    <t>100026106</t>
+  </si>
+  <si>
+    <t>Briar Knoll Apts</t>
+  </si>
+  <si>
+    <t>401-91 Talcottville Rd.</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon/Briar-Knoll-Apts/2872/</t>
+  </si>
+  <si>
+    <t>2872</t>
+  </si>
+  <si>
+    <t>Willowbrook</t>
+  </si>
+  <si>
+    <t>335 Center Road</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon/Willowbrook/180003/</t>
+  </si>
+  <si>
+    <t>180003</t>
+  </si>
+  <si>
+    <t>Griswold Gardens</t>
+  </si>
+  <si>
+    <t>30 Salem Court</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Glastonbury/Griswold-Gardens/2783/</t>
+  </si>
+  <si>
+    <t>2783</t>
+  </si>
+  <si>
+    <t>Countrywood At Vernon</t>
+  </si>
+  <si>
+    <t>631 Talcottville Road</t>
+  </si>
+  <si>
+    <t>vernon_rockville</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon-Rockville/Countrywood-At-Vernon/187889/</t>
+  </si>
+  <si>
+    <t>187889</t>
+  </si>
+  <si>
+    <t>Candlelight Apartments</t>
+  </si>
+  <si>
+    <t>80 House Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Glastonbury/Candlelight-Apartments/80707/</t>
+  </si>
+  <si>
+    <t>80707</t>
+  </si>
+  <si>
+    <t>Colonial Village Apartments</t>
+  </si>
+  <si>
+    <t>53 Salmon Brook Drive</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Glastonbury/Colonial-Village-Apartments/168006/</t>
+  </si>
+  <si>
+    <t>168006</t>
+  </si>
+  <si>
+    <t>Woodside Apartments</t>
+  </si>
+  <si>
+    <t>16 Spring Street and 45 Olmsted Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/East-Hartford/Woodside-Apartments/100019277/</t>
+  </si>
+  <si>
+    <t>100019277</t>
+  </si>
+  <si>
+    <t>Glastonbury Centre</t>
+  </si>
+  <si>
+    <t>28 Nanel Drive Suite B</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Glastonbury/Glastonbury-Centre/42540/</t>
+  </si>
+  <si>
+    <t>42540</t>
+  </si>
+  <si>
+    <t>The Tannery</t>
+  </si>
+  <si>
+    <t>917 New London Turnpike</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Glastonbury/The-Tannery/100031373/</t>
+  </si>
+  <si>
+    <t>100031373</t>
+  </si>
+  <si>
+    <t>Brookside Commons</t>
+  </si>
+  <si>
+    <t>235 Main Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/East-Hartford/Brookside-Commons/46062/</t>
+  </si>
+  <si>
+    <t>46062</t>
+  </si>
+  <si>
+    <t>Vernon Gardens Apartments</t>
+  </si>
+  <si>
+    <t>695 Talcottville Road 42b</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon/Vernon-Gardens-Apartments/80179/</t>
+  </si>
+  <si>
+    <t>80179</t>
+  </si>
+  <si>
+    <t>North/Southgate Apartments</t>
+  </si>
+  <si>
+    <t>300 South Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon/North_Southgate-Apartments/85948/</t>
+  </si>
+  <si>
+    <t>85948</t>
+  </si>
+  <si>
+    <t>Highland Apartments of Vernon</t>
+  </si>
+  <si>
+    <t>14 Highland Avenue</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon/Highland-Apartments-of-Vernon/163047/</t>
+  </si>
+  <si>
+    <t>163047</t>
+  </si>
+  <si>
+    <t>Westar Apartments</t>
+  </si>
+  <si>
+    <t>94 West Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon/Westar-Apartments/100026945/</t>
+  </si>
+  <si>
+    <t>100026945</t>
+  </si>
+  <si>
+    <t>Regency I</t>
+  </si>
+  <si>
+    <t>30 Nye St. Vernon</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon/Regency-I/100029521/</t>
+  </si>
+  <si>
+    <t>100029521</t>
+  </si>
+  <si>
+    <t>Pinney Hill</t>
+  </si>
+  <si>
+    <t>26 Pinney Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Ellington/Pinney-Hill/10465/</t>
+  </si>
+  <si>
+    <t>10465</t>
+  </si>
+  <si>
+    <t>Santini Villa Apartments</t>
+  </si>
+  <si>
+    <t>1125 Hartford Turnpike</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon/Santini-Villa-Apartments/8779/</t>
+  </si>
+  <si>
+    <t>8779</t>
+  </si>
+  <si>
+    <t>Florence Mill- Senior Housing</t>
+  </si>
+  <si>
+    <t>121 West Main Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon/Florence-Mill--Senior-Housing/187978/</t>
+  </si>
+  <si>
+    <t>187978</t>
+  </si>
+  <si>
+    <t>Cornfield Apartments</t>
+  </si>
+  <si>
+    <t>60 Pinney Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Ellington/Cornfield-Apartments/77506/</t>
+  </si>
+  <si>
+    <t>77506</t>
+  </si>
+  <si>
+    <t>Deer Valley Townhomes</t>
+  </si>
+  <si>
+    <t>155 Windermere Avenue</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Ellington/Deer-Valley-Townhomes/36315/</t>
+  </si>
+  <si>
+    <t>36315</t>
+  </si>
+  <si>
+    <t>Ledgecrest Apartments</t>
+  </si>
+  <si>
+    <t>79 Brooklyn Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon/Ledgecrest-Apartments/46762/</t>
+  </si>
+  <si>
+    <t>46762</t>
+  </si>
+  <si>
+    <t>Colt Gateway</t>
+  </si>
+  <si>
+    <t>140 Huyshope Avenue</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/Colt-Gateway/36060/</t>
+  </si>
+  <si>
+    <t>36060</t>
+  </si>
+  <si>
+    <t>Deerfield Windsor Apartments</t>
+  </si>
+  <si>
+    <t>782B Windsor Avenue</t>
+  </si>
+  <si>
+    <t>windsor</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Windsor/Deerfield-Windsor-Apartments/46702/</t>
+  </si>
+  <si>
+    <t>46702</t>
+  </si>
+  <si>
+    <t>Lofts At Main &amp;amp; Temple</t>
+  </si>
+  <si>
+    <t>21 Temple Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/Lofts-At-Main-~-Temple/65731/</t>
+  </si>
+  <si>
+    <t>65731</t>
+  </si>
+  <si>
+    <t>Loom City Lofts</t>
+  </si>
+  <si>
+    <t>215 E Main Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon-Rockville/Loom-City-Lofts/100027350/</t>
+  </si>
+  <si>
+    <t>100027350</t>
+  </si>
+  <si>
+    <t>777 Main</t>
+  </si>
+  <si>
+    <t>777 Main St</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/777-Main/100023297/</t>
+  </si>
+  <si>
+    <t>100023297</t>
+  </si>
+  <si>
+    <t>Trumbull on the Park</t>
+  </si>
+  <si>
+    <t>100 Trumbull Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/Trumbull-on-the-Park/47495/</t>
+  </si>
+  <si>
+    <t>47495</t>
+  </si>
+  <si>
+    <t>250 MAIN</t>
+  </si>
+  <si>
+    <t>250 Main Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/250-MAIN/2634/</t>
+  </si>
+  <si>
+    <t>2634</t>
+  </si>
+  <si>
+    <t>Bushnell On The Park</t>
+  </si>
+  <si>
+    <t>100 Wells Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/Bushnell-On-The-Park/16621/</t>
+  </si>
+  <si>
+    <t>16621</t>
+  </si>
+  <si>
+    <t>Autumn Chase</t>
+  </si>
+  <si>
+    <t>115 West Road</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Ellington/Autumn-Chase/2630/</t>
+  </si>
+  <si>
+    <t>2630</t>
+  </si>
+  <si>
+    <t>Windsor Station</t>
+  </si>
+  <si>
+    <t>55 Mechanic St</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Windsor/Windsor-Station/100030891/</t>
+  </si>
+  <si>
+    <t>100030891</t>
+  </si>
+  <si>
+    <t>The Hollander Building</t>
+  </si>
+  <si>
+    <t>410 Asylum Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/The-Hollander-Building/86419/</t>
+  </si>
+  <si>
+    <t>86419</t>
+  </si>
+  <si>
+    <t>Capitol View</t>
+  </si>
+  <si>
+    <t>600 Asylum Avenue</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/Capitol-View/2823/</t>
+  </si>
+  <si>
+    <t>2823</t>
+  </si>
+  <si>
+    <t>Capitol Lofts</t>
+  </si>
+  <si>
+    <t>390 Capitol Ave</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/Capitol-Lofts/100030373/</t>
+  </si>
+  <si>
+    <t>100030373</t>
+  </si>
+  <si>
+    <t>Colonial Arms Apartments</t>
+  </si>
+  <si>
+    <t>966 Silas Deane Hwy</t>
+  </si>
+  <si>
+    <t>wethersfield</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Wethersfield/Colonial-Arms-Apartments/189245/</t>
+  </si>
+  <si>
+    <t>189245</t>
+  </si>
+  <si>
+    <t>16 Niles Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/16-Niles-Street/79624/</t>
+  </si>
+  <si>
+    <t>79624</t>
+  </si>
+  <si>
+    <t>Parkview Towers</t>
+  </si>
+  <si>
+    <t>967 Asylum Avenue</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/Parkview-Towers/2663/</t>
+  </si>
+  <si>
+    <t>2663</t>
+  </si>
+  <si>
+    <t>Johnny Appleseed</t>
+  </si>
+  <si>
+    <t>200 West Road</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Ellington/Johnny-Appleseed/12450/</t>
+  </si>
+  <si>
+    <t>12450</t>
+  </si>
+  <si>
+    <t>Park Place Towers</t>
+  </si>
+  <si>
+    <t>24 Park Place</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/Park-Place-Towers/2838/</t>
+  </si>
+  <si>
+    <t>2838</t>
+  </si>
+  <si>
+    <t>Greenfield Village</t>
+  </si>
+  <si>
+    <t>1800 Silas Deane Hwy</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Rocky-Hill/Greenfield-Village/34075/</t>
+  </si>
+  <si>
+    <t>34075</t>
+  </si>
+  <si>
+    <t>Clemens Place Apartments</t>
+  </si>
+  <si>
+    <t>16 Owen Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/Clemens-Place-Apartments/2788/</t>
+  </si>
+  <si>
+    <t>2788</t>
+  </si>
+  <si>
+    <t>Stepny Place Apartments</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Rocky-Hill/Stepny-Place-Apartments/2805/</t>
+  </si>
+  <si>
+    <t>2805</t>
+  </si>
+  <si>
+    <t>Rivers Bend</t>
+  </si>
+  <si>
+    <t>One Phaeton Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Windsor/Rivers-Bend/2797/</t>
+  </si>
+  <si>
+    <t>2797</t>
+  </si>
+  <si>
+    <t>Mill Pond Village</t>
+  </si>
+  <si>
+    <t>59 Mill Pond Road</t>
+  </si>
+  <si>
+    <t>broad_brook</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Broad-Brook/Mill-Pond-Village/2834/</t>
+  </si>
+  <si>
+    <t>2834</t>
+  </si>
+  <si>
+    <t>The Village At Wethersfield</t>
+  </si>
+  <si>
+    <t>79 Village Drive</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Wethersfield/The-Village-At-Wethersfield/2829/</t>
+  </si>
+  <si>
+    <t>2829</t>
+  </si>
+  <si>
+    <t>322 Hudson St</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/322-Hudson-St/2027228/</t>
+  </si>
+  <si>
+    <t>2027228</t>
+  </si>
+  <si>
+    <t>Woodmere Place - Pets Allowed (No fee) - FREE Heat</t>
+  </si>
+  <si>
+    <t>655 Talcottville Road</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Vernon/655-Talcottville-Road/r2092073/</t>
+  </si>
+  <si>
+    <t>r2092073</t>
+  </si>
+  <si>
+    <t>26 Congress Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/26-Congress-Street/LV26851410/</t>
+  </si>
+  <si>
+    <t>LV26851410</t>
+  </si>
+  <si>
+    <t>322 Hudson Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/322-Hudson-Street/LV26929258/</t>
+  </si>
+  <si>
+    <t>LV26929258</t>
+  </si>
+  <si>
+    <t>45 Barbour Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/45-Barbour-Street/LV26995952/</t>
+  </si>
+  <si>
+    <t>LV26995952</t>
+  </si>
+  <si>
+    <t>12 South Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/12-South-Street/LV26861083/</t>
+  </si>
+  <si>
+    <t>LV26861083</t>
+  </si>
+  <si>
+    <t>905 Park Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/905-Park-Street/LV26981547/</t>
+  </si>
+  <si>
+    <t>LV26981547</t>
+  </si>
+  <si>
+    <t>12 Willard Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/12-Willard-Street/LV26981544/</t>
+  </si>
+  <si>
+    <t>LV26981544</t>
+  </si>
+  <si>
+    <t>50 Gillett Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/50-Gillett-Street/LV26989257/</t>
+  </si>
+  <si>
+    <t>LV26989257</t>
+  </si>
+  <si>
+    <t>252 Sisson Avenue</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/252-Sisson-Avenue/LV26741966/</t>
+  </si>
+  <si>
+    <t>LV26741966</t>
+  </si>
+  <si>
+    <t>37 Dorothy Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Hartford/37-Dorothy-Street/LV26984015/</t>
+  </si>
+  <si>
+    <t>LV26984015</t>
+  </si>
+  <si>
+    <t>Caya Avenue Apartments</t>
+  </si>
+  <si>
+    <t>98 Caya Avenue</t>
+  </si>
+  <si>
+    <t>west_hartford</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/West-Hartford/Caya-Avenue-Apartments/89147/</t>
+  </si>
+  <si>
+    <t>89147</t>
+  </si>
+  <si>
+    <t>Residences at Steele Road</t>
+  </si>
+  <si>
+    <t>243 Steele Road</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/West-Hartford/Residences-at-Steele-Road/100029211/</t>
+  </si>
+  <si>
+    <t>100029211</t>
+  </si>
+  <si>
+    <t>Brooksyde Apartments</t>
+  </si>
+  <si>
+    <t>133 Loomis Dr #A-1</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/West-Hartford/Brooksyde-Apartments/45641/</t>
+  </si>
+  <si>
+    <t>45641</t>
+  </si>
+  <si>
+    <t>The Landmark in West Hartford Center</t>
+  </si>
+  <si>
+    <t>11 S Main Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/West-Hartford/The-Landmark-in-West-Hartford-Center/100028939/</t>
+  </si>
+  <si>
+    <t>100028939</t>
+  </si>
+  <si>
+    <t>Park Place West</t>
+  </si>
+  <si>
+    <t>158 Newington Road</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/West-Hartford/Park-Place-West/45639/</t>
+  </si>
+  <si>
+    <t>45639</t>
+  </si>
+  <si>
+    <t>Bishops Place</t>
+  </si>
+  <si>
+    <t>2432 Albany Avenue</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/West-Hartford/Bishops-Place/100028533/</t>
+  </si>
+  <si>
+    <t>100028533</t>
+  </si>
+  <si>
+    <t>Woodbridge</t>
+  </si>
+  <si>
+    <t>83 Main St.</t>
+  </si>
+  <si>
+    <t>newington</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Newington/Woodbridge/178002/</t>
+  </si>
+  <si>
+    <t>178002</t>
+  </si>
+  <si>
+    <t>Westgate Apartments</t>
+  </si>
+  <si>
+    <t>1248 Farmington Avenue</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/West-Hartford/Westgate-Apartments/45642/</t>
+  </si>
+  <si>
+    <t>45642</t>
+  </si>
+  <si>
+    <t>600 Apartments</t>
+  </si>
+  <si>
+    <t>673 Cottage Grove Road</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Bloomfield/600-Apartments/18212/</t>
+  </si>
+  <si>
+    <t>18212</t>
+  </si>
+  <si>
+    <t>24 North Main Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/West-Hartford/24-North-Main-Street/LV26631671/</t>
+  </si>
+  <si>
+    <t>LV26631671</t>
+  </si>
+  <si>
+    <t>38 North Main Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/West-Hartford/38-North-Main-Street/LV26875594/</t>
+  </si>
+  <si>
+    <t>LV26875594</t>
+  </si>
+  <si>
+    <t>Pebblebrook Apartments</t>
+  </si>
+  <si>
+    <t>46 Brittany Farms Road #121</t>
+  </si>
+  <si>
+    <t>new_britain</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/New-Britain/Pebblebrook-Apartments/2882/</t>
+  </si>
+  <si>
+    <t>2882</t>
+  </si>
+  <si>
+    <t>Normandy Heights</t>
+  </si>
+  <si>
+    <t>395 Brittany Farms Road</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/New-Britain/Normandy-Heights/2791/</t>
+  </si>
+  <si>
+    <t>2791</t>
+  </si>
+  <si>
+    <t>Country Club Estates</t>
+  </si>
+  <si>
+    <t>2086-2090 Stanley Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/New-Britain/Country-Club-Estates/84584/</t>
+  </si>
+  <si>
+    <t>84584</t>
+  </si>
+  <si>
+    <t>Ramblestone Apartments</t>
+  </si>
+  <si>
+    <t>4 Regency Drive</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Bloomfield/Ramblestone-Apartments/89951/</t>
+  </si>
+  <si>
+    <t>89951</t>
+  </si>
+  <si>
+    <t>Furnished Studio - Hartford - Farmington</t>
+  </si>
+  <si>
+    <t>1 Batterson Park Rd.</t>
+  </si>
+  <si>
+    <t>farmington</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Farmington/Furnished-Studio-Hartford-Farmington/184049/</t>
+  </si>
+  <si>
+    <t>184049</t>
+  </si>
+  <si>
+    <t>Avon Place</t>
+  </si>
+  <si>
+    <t>46 Avonwood Road</t>
+  </si>
+  <si>
+    <t>avon</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Avon/Avon-Place/17824/</t>
+  </si>
+  <si>
+    <t>17824</t>
+  </si>
+  <si>
+    <t>Farmington Line</t>
+  </si>
+  <si>
+    <t>950 Farmington Avenue</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/New-Britain/Farmington-Line/53904/</t>
+  </si>
+  <si>
+    <t>53904</t>
+  </si>
+  <si>
+    <t>Avon Mill Apartments</t>
+  </si>
+  <si>
+    <t>75 Avonwood Road</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/Avon/Avon-Mill-Apartments/41894/</t>
+  </si>
+  <si>
+    <t>41894</t>
+  </si>
+  <si>
+    <t>Campus View Apartments</t>
+  </si>
+  <si>
+    <t>1412 East Street</t>
+  </si>
+  <si>
+    <t>http://www.apartmentguide.com/apartments/Connecticut/New-Britain/Campus-View-Apartments/161641/</t>
+  </si>
+  <si>
+    <t>161641</t>
   </si>
 </sst>
 </file>
@@ -568,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="J15" sqref="A1:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,6 +2253,3206 @@
       </c>
       <c r="J15" s="1" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>1485</v>
+      </c>
+      <c r="F16">
+        <v>41.801200000000001</v>
+      </c>
+      <c r="G16">
+        <v>-72.543899999999994</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>1253</v>
+      </c>
+      <c r="F17">
+        <v>41.803899999999999</v>
+      </c>
+      <c r="G17">
+        <v>-72.534300000000002</v>
+      </c>
+      <c r="H17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>1102</v>
+      </c>
+      <c r="F18">
+        <v>41.767600000000002</v>
+      </c>
+      <c r="G18">
+        <v>-72.528800000000004</v>
+      </c>
+      <c r="H18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>1290</v>
+      </c>
+      <c r="F19">
+        <v>41.797499999999999</v>
+      </c>
+      <c r="G19">
+        <v>-72.550799999999995</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>1280</v>
+      </c>
+      <c r="F20">
+        <v>41.808199999999999</v>
+      </c>
+      <c r="G20">
+        <v>-72.540999999999997</v>
+      </c>
+      <c r="H20" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>1300</v>
+      </c>
+      <c r="F21">
+        <v>41.811900000000001</v>
+      </c>
+      <c r="G21">
+        <v>-72.535399999999996</v>
+      </c>
+      <c r="H21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>875</v>
+      </c>
+      <c r="F22">
+        <v>41.763800000000003</v>
+      </c>
+      <c r="G22">
+        <v>-72.5077</v>
+      </c>
+      <c r="H22" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>962</v>
+      </c>
+      <c r="F23">
+        <v>41.786200000000001</v>
+      </c>
+      <c r="G23">
+        <v>-72.5548</v>
+      </c>
+      <c r="H23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>1028</v>
+      </c>
+      <c r="F24">
+        <v>41.803899999999999</v>
+      </c>
+      <c r="G24">
+        <v>-72.514399999999995</v>
+      </c>
+      <c r="H24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>1342</v>
+      </c>
+      <c r="F25">
+        <v>41.768000000000001</v>
+      </c>
+      <c r="G25">
+        <v>-72.530299999999997</v>
+      </c>
+      <c r="H25" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>1470</v>
+      </c>
+      <c r="F26">
+        <v>41.810400000000001</v>
+      </c>
+      <c r="G26">
+        <v>-72.520600000000002</v>
+      </c>
+      <c r="H26" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>1037</v>
+      </c>
+      <c r="F27">
+        <v>41.780900000000003</v>
+      </c>
+      <c r="G27">
+        <v>-72.545199999999994</v>
+      </c>
+      <c r="H27" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>1182</v>
+      </c>
+      <c r="F28">
+        <v>41.767000000000003</v>
+      </c>
+      <c r="G28">
+        <v>-72.529499999999999</v>
+      </c>
+      <c r="H28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>875</v>
+      </c>
+      <c r="F29">
+        <v>41.794899999999998</v>
+      </c>
+      <c r="G29">
+        <v>-72.525199999999998</v>
+      </c>
+      <c r="H29" t="s">
+        <v>125</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>850</v>
+      </c>
+      <c r="F30">
+        <v>41.782600000000002</v>
+      </c>
+      <c r="G30">
+        <v>-72.581199999999995</v>
+      </c>
+      <c r="H30" t="s">
+        <v>130</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>1695</v>
+      </c>
+      <c r="F31">
+        <v>41.813499999999998</v>
+      </c>
+      <c r="G31">
+        <v>-72.555899999999994</v>
+      </c>
+      <c r="H31" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>893</v>
+      </c>
+      <c r="F32">
+        <v>41.783200000000001</v>
+      </c>
+      <c r="G32">
+        <v>-72.583399999999997</v>
+      </c>
+      <c r="H32" t="s">
+        <v>139</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>1019</v>
+      </c>
+      <c r="F33">
+        <v>41.8232</v>
+      </c>
+      <c r="G33">
+        <v>-72.505099999999999</v>
+      </c>
+      <c r="H33" t="s">
+        <v>143</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>1099</v>
+      </c>
+      <c r="F34">
+        <v>41.781300000000002</v>
+      </c>
+      <c r="G34">
+        <v>-72.599400000000003</v>
+      </c>
+      <c r="H34" t="s">
+        <v>147</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>1257</v>
+      </c>
+      <c r="F35">
+        <v>41.841999999999999</v>
+      </c>
+      <c r="G35">
+        <v>-72.498699999999999</v>
+      </c>
+      <c r="H35" t="s">
+        <v>151</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>805</v>
+      </c>
+      <c r="F36">
+        <v>41.781799999999997</v>
+      </c>
+      <c r="G36">
+        <v>-72.613299999999995</v>
+      </c>
+      <c r="H36" t="s">
+        <v>155</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>893</v>
+      </c>
+      <c r="F37">
+        <v>41.767899999999997</v>
+      </c>
+      <c r="G37">
+        <v>-72.614599999999996</v>
+      </c>
+      <c r="H37" t="s">
+        <v>159</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>1803</v>
+      </c>
+      <c r="F38">
+        <v>41.719000000000001</v>
+      </c>
+      <c r="G38">
+        <v>-72.576400000000007</v>
+      </c>
+      <c r="H38" t="s">
+        <v>164</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>868</v>
+      </c>
+      <c r="F39">
+        <v>41.765900000000002</v>
+      </c>
+      <c r="G39">
+        <v>-72.616100000000003</v>
+      </c>
+      <c r="H39" t="s">
+        <v>168</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>1193</v>
+      </c>
+      <c r="F40">
+        <v>41.844200000000001</v>
+      </c>
+      <c r="G40">
+        <v>-72.487300000000005</v>
+      </c>
+      <c r="H40" t="s">
+        <v>172</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>820</v>
+      </c>
+      <c r="F41">
+        <v>41.85</v>
+      </c>
+      <c r="G41">
+        <v>-72.481800000000007</v>
+      </c>
+      <c r="H41" t="s">
+        <v>176</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>1287</v>
+      </c>
+      <c r="F42">
+        <v>41.7239</v>
+      </c>
+      <c r="G42">
+        <v>-72.603999999999999</v>
+      </c>
+      <c r="H42" t="s">
+        <v>180</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" t="s">
+        <v>184</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>913</v>
+      </c>
+      <c r="F43">
+        <v>41.8551</v>
+      </c>
+      <c r="G43">
+        <v>-72.483999999999995</v>
+      </c>
+      <c r="H43" t="s">
+        <v>185</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>975</v>
+      </c>
+      <c r="F44">
+        <v>41.716200000000001</v>
+      </c>
+      <c r="G44">
+        <v>-72.601699999999994</v>
+      </c>
+      <c r="H44" t="s">
+        <v>189</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>1295</v>
+      </c>
+      <c r="F45">
+        <v>41.7166</v>
+      </c>
+      <c r="G45">
+        <v>-72.602800000000002</v>
+      </c>
+      <c r="H45" t="s">
+        <v>193</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>195</v>
+      </c>
+      <c r="B46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>775</v>
+      </c>
+      <c r="F46">
+        <v>41.773099999999999</v>
+      </c>
+      <c r="G46">
+        <v>-72.636399999999995</v>
+      </c>
+      <c r="H46" t="s">
+        <v>197</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>1200</v>
+      </c>
+      <c r="F47">
+        <v>41.712600000000002</v>
+      </c>
+      <c r="G47">
+        <v>-72.603099999999998</v>
+      </c>
+      <c r="H47" t="s">
+        <v>201</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>203</v>
+      </c>
+      <c r="B48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>1776</v>
+      </c>
+      <c r="F48">
+        <v>41.703699999999998</v>
+      </c>
+      <c r="G48">
+        <v>-72.590400000000002</v>
+      </c>
+      <c r="H48" t="s">
+        <v>205</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>889</v>
+      </c>
+      <c r="F49">
+        <v>41.744399999999999</v>
+      </c>
+      <c r="G49">
+        <v>-72.6327</v>
+      </c>
+      <c r="H49" t="s">
+        <v>209</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>211</v>
+      </c>
+      <c r="B50" t="s">
+        <v>212</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>1122</v>
+      </c>
+      <c r="F50">
+        <v>41.860399999999998</v>
+      </c>
+      <c r="G50">
+        <v>-72.483400000000003</v>
+      </c>
+      <c r="H50" t="s">
+        <v>213</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>215</v>
+      </c>
+      <c r="B51" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>914</v>
+      </c>
+      <c r="F51">
+        <v>41.856499999999997</v>
+      </c>
+      <c r="G51">
+        <v>-72.462199999999996</v>
+      </c>
+      <c r="H51" t="s">
+        <v>217</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>219</v>
+      </c>
+      <c r="B52" t="s">
+        <v>220</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>875</v>
+      </c>
+      <c r="F52">
+        <v>41.860500000000002</v>
+      </c>
+      <c r="G52">
+        <v>-72.4649</v>
+      </c>
+      <c r="H52" t="s">
+        <v>221</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>223</v>
+      </c>
+      <c r="B53" t="s">
+        <v>224</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>767</v>
+      </c>
+      <c r="F53">
+        <v>41.863100000000003</v>
+      </c>
+      <c r="G53">
+        <v>-72.466700000000003</v>
+      </c>
+      <c r="H53" t="s">
+        <v>225</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>227</v>
+      </c>
+      <c r="B54" t="s">
+        <v>228</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>772</v>
+      </c>
+      <c r="F54">
+        <v>41.863500000000002</v>
+      </c>
+      <c r="G54">
+        <v>-72.463899999999995</v>
+      </c>
+      <c r="H54" t="s">
+        <v>229</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>231</v>
+      </c>
+      <c r="B55" t="s">
+        <v>232</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>950</v>
+      </c>
+      <c r="F55">
+        <v>41.871499999999997</v>
+      </c>
+      <c r="G55">
+        <v>-72.490499999999997</v>
+      </c>
+      <c r="H55" t="s">
+        <v>233</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>235</v>
+      </c>
+      <c r="B56" t="s">
+        <v>236</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>1118</v>
+      </c>
+      <c r="F56">
+        <v>41.8553</v>
+      </c>
+      <c r="G56">
+        <v>-72.443100000000001</v>
+      </c>
+      <c r="H56" t="s">
+        <v>237</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>239</v>
+      </c>
+      <c r="B57" t="s">
+        <v>240</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>1024</v>
+      </c>
+      <c r="F57">
+        <v>41.865200000000002</v>
+      </c>
+      <c r="G57">
+        <v>-72.453100000000006</v>
+      </c>
+      <c r="H57" t="s">
+        <v>241</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>243</v>
+      </c>
+      <c r="B58" t="s">
+        <v>244</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>971</v>
+      </c>
+      <c r="F58">
+        <v>41.875700000000002</v>
+      </c>
+      <c r="G58">
+        <v>-72.486599999999996</v>
+      </c>
+      <c r="H58" t="s">
+        <v>245</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>247</v>
+      </c>
+      <c r="B59" t="s">
+        <v>248</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>1657</v>
+      </c>
+      <c r="F59">
+        <v>41.877600000000001</v>
+      </c>
+      <c r="G59">
+        <v>-72.486199999999997</v>
+      </c>
+      <c r="H59" t="s">
+        <v>249</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>251</v>
+      </c>
+      <c r="B60" t="s">
+        <v>252</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>895</v>
+      </c>
+      <c r="F60">
+        <v>41.8658</v>
+      </c>
+      <c r="G60">
+        <v>-72.4482</v>
+      </c>
+      <c r="H60" t="s">
+        <v>253</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>255</v>
+      </c>
+      <c r="B61" t="s">
+        <v>256</v>
+      </c>
+      <c r="C61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>1539</v>
+      </c>
+      <c r="F61">
+        <v>41.756399999999999</v>
+      </c>
+      <c r="G61">
+        <v>-72.665199999999999</v>
+      </c>
+      <c r="H61" t="s">
+        <v>257</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>259</v>
+      </c>
+      <c r="B62" t="s">
+        <v>260</v>
+      </c>
+      <c r="C62" t="s">
+        <v>261</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>967</v>
+      </c>
+      <c r="F62">
+        <v>41.8249</v>
+      </c>
+      <c r="G62">
+        <v>-72.656199999999998</v>
+      </c>
+      <c r="H62" t="s">
+        <v>262</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B63" t="s">
+        <v>265</v>
+      </c>
+      <c r="C63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>1815</v>
+      </c>
+      <c r="F63">
+        <v>41.767499999999998</v>
+      </c>
+      <c r="G63">
+        <v>-72.672600000000003</v>
+      </c>
+      <c r="H63" t="s">
+        <v>266</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>268</v>
+      </c>
+      <c r="B64" t="s">
+        <v>269</v>
+      </c>
+      <c r="C64" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>892</v>
+      </c>
+      <c r="F64">
+        <v>41.867800000000003</v>
+      </c>
+      <c r="G64">
+        <v>-72.432900000000004</v>
+      </c>
+      <c r="H64" t="s">
+        <v>270</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>272</v>
+      </c>
+      <c r="B65" t="s">
+        <v>273</v>
+      </c>
+      <c r="C65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>2017</v>
+      </c>
+      <c r="F65">
+        <v>41.765999999999998</v>
+      </c>
+      <c r="G65">
+        <v>-72.673400000000001</v>
+      </c>
+      <c r="H65" t="s">
+        <v>274</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>276</v>
+      </c>
+      <c r="B66" t="s">
+        <v>277</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>1472</v>
+      </c>
+      <c r="F66">
+        <v>41.766100000000002</v>
+      </c>
+      <c r="G66">
+        <v>-72.676100000000005</v>
+      </c>
+      <c r="H66" t="s">
+        <v>278</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>280</v>
+      </c>
+      <c r="B67" t="s">
+        <v>281</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>908</v>
+      </c>
+      <c r="F67">
+        <v>41.758699999999997</v>
+      </c>
+      <c r="G67">
+        <v>-72.674999999999997</v>
+      </c>
+      <c r="H67" t="s">
+        <v>282</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>284</v>
+      </c>
+      <c r="B68" t="s">
+        <v>285</v>
+      </c>
+      <c r="C68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>1383</v>
+      </c>
+      <c r="F68">
+        <v>41.763599999999997</v>
+      </c>
+      <c r="G68">
+        <v>-72.675899999999999</v>
+      </c>
+      <c r="H68" t="s">
+        <v>286</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>288</v>
+      </c>
+      <c r="B69" t="s">
+        <v>289</v>
+      </c>
+      <c r="C69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>1295</v>
+      </c>
+      <c r="F69">
+        <v>41.883299999999998</v>
+      </c>
+      <c r="G69">
+        <v>-72.464200000000005</v>
+      </c>
+      <c r="H69" t="s">
+        <v>290</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>292</v>
+      </c>
+      <c r="B70" t="s">
+        <v>293</v>
+      </c>
+      <c r="C70" t="s">
+        <v>261</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>1500</v>
+      </c>
+      <c r="F70">
+        <v>41.851399999999998</v>
+      </c>
+      <c r="G70">
+        <v>-72.641499999999994</v>
+      </c>
+      <c r="H70" t="s">
+        <v>294</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>296</v>
+      </c>
+      <c r="B71" t="s">
+        <v>297</v>
+      </c>
+      <c r="C71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>875</v>
+      </c>
+      <c r="F71">
+        <v>41.767899999999997</v>
+      </c>
+      <c r="G71">
+        <v>-72.682400000000001</v>
+      </c>
+      <c r="H71" t="s">
+        <v>298</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>300</v>
+      </c>
+      <c r="B72" t="s">
+        <v>301</v>
+      </c>
+      <c r="C72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>1022</v>
+      </c>
+      <c r="F72">
+        <v>41.7682</v>
+      </c>
+      <c r="G72">
+        <v>-72.684799999999996</v>
+      </c>
+      <c r="H72" t="s">
+        <v>302</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>304</v>
+      </c>
+      <c r="B73" t="s">
+        <v>305</v>
+      </c>
+      <c r="C73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>1203</v>
+      </c>
+      <c r="F73">
+        <v>41.764000000000003</v>
+      </c>
+      <c r="G73">
+        <v>-72.688400000000001</v>
+      </c>
+      <c r="H73" t="s">
+        <v>306</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>308</v>
+      </c>
+      <c r="B74" t="s">
+        <v>309</v>
+      </c>
+      <c r="C74" t="s">
+        <v>310</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>895</v>
+      </c>
+      <c r="F74">
+        <v>41.697000000000003</v>
+      </c>
+      <c r="G74">
+        <v>-72.656899999999993</v>
+      </c>
+      <c r="H74" t="s">
+        <v>311</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>313</v>
+      </c>
+      <c r="B75" t="s">
+        <v>313</v>
+      </c>
+      <c r="C75" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>650</v>
+      </c>
+      <c r="F75">
+        <v>41.769300000000001</v>
+      </c>
+      <c r="G75">
+        <v>-72.694800000000001</v>
+      </c>
+      <c r="H75" t="s">
+        <v>314</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>316</v>
+      </c>
+      <c r="B76" t="s">
+        <v>317</v>
+      </c>
+      <c r="C76" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>850</v>
+      </c>
+      <c r="F76">
+        <v>41.770699999999998</v>
+      </c>
+      <c r="G76">
+        <v>-72.695300000000003</v>
+      </c>
+      <c r="H76" t="s">
+        <v>318</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>320</v>
+      </c>
+      <c r="B77" t="s">
+        <v>321</v>
+      </c>
+      <c r="C77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>962</v>
+      </c>
+      <c r="F77">
+        <v>41.897500000000001</v>
+      </c>
+      <c r="G77">
+        <v>-72.4602</v>
+      </c>
+      <c r="H77" t="s">
+        <v>322</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>324</v>
+      </c>
+      <c r="B78" t="s">
+        <v>325</v>
+      </c>
+      <c r="C78" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>1060</v>
+      </c>
+      <c r="F78">
+        <v>41.759700000000002</v>
+      </c>
+      <c r="G78">
+        <v>-72.696899999999999</v>
+      </c>
+      <c r="H78" t="s">
+        <v>326</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>328</v>
+      </c>
+      <c r="B79" t="s">
+        <v>329</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>1157</v>
+      </c>
+      <c r="F79">
+        <v>41.6785</v>
+      </c>
+      <c r="G79">
+        <v>-72.647800000000004</v>
+      </c>
+      <c r="H79" t="s">
+        <v>330</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>332</v>
+      </c>
+      <c r="B80" t="s">
+        <v>333</v>
+      </c>
+      <c r="C80" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>948</v>
+      </c>
+      <c r="F80">
+        <v>41.766399999999997</v>
+      </c>
+      <c r="G80">
+        <v>-72.704899999999995</v>
+      </c>
+      <c r="H80" t="s">
+        <v>334</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>336</v>
+      </c>
+      <c r="B81" t="s">
+        <v>329</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>1421</v>
+      </c>
+      <c r="F81">
+        <v>41.6768</v>
+      </c>
+      <c r="G81">
+        <v>-72.650400000000005</v>
+      </c>
+      <c r="H81" t="s">
+        <v>337</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>339</v>
+      </c>
+      <c r="B82" t="s">
+        <v>340</v>
+      </c>
+      <c r="C82" t="s">
+        <v>261</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>1079</v>
+      </c>
+      <c r="F82">
+        <v>41.873199999999997</v>
+      </c>
+      <c r="G82">
+        <v>-72.657799999999995</v>
+      </c>
+      <c r="H82" t="s">
+        <v>341</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>343</v>
+      </c>
+      <c r="B83" t="s">
+        <v>344</v>
+      </c>
+      <c r="C83" t="s">
+        <v>345</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>943</v>
+      </c>
+      <c r="F83">
+        <v>41.918399999999998</v>
+      </c>
+      <c r="G83">
+        <v>-72.539400000000001</v>
+      </c>
+      <c r="H83" t="s">
+        <v>346</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>348</v>
+      </c>
+      <c r="B84" t="s">
+        <v>349</v>
+      </c>
+      <c r="C84" t="s">
+        <v>310</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>1337</v>
+      </c>
+      <c r="F84">
+        <v>41.714500000000001</v>
+      </c>
+      <c r="G84">
+        <v>-72.695899999999995</v>
+      </c>
+      <c r="H84" t="s">
+        <v>350</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>352</v>
+      </c>
+      <c r="B85" t="s">
+        <v>352</v>
+      </c>
+      <c r="C85" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>800</v>
+      </c>
+      <c r="F85">
+        <v>41.759022000000002</v>
+      </c>
+      <c r="G85">
+        <v>-72.677800000000005</v>
+      </c>
+      <c r="H85" t="s">
+        <v>353</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>355</v>
+      </c>
+      <c r="B86" t="s">
+        <v>356</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>975</v>
+      </c>
+      <c r="F86">
+        <v>41.857700000000001</v>
+      </c>
+      <c r="G86">
+        <v>-72.484899999999996</v>
+      </c>
+      <c r="H86" t="s">
+        <v>357</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>359</v>
+      </c>
+      <c r="B87" t="s">
+        <v>359</v>
+      </c>
+      <c r="C87" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87">
+        <v>800</v>
+      </c>
+      <c r="F87">
+        <v>41.754471000000002</v>
+      </c>
+      <c r="G87">
+        <v>-72.675798</v>
+      </c>
+      <c r="H87" t="s">
+        <v>360</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>362</v>
+      </c>
+      <c r="B88" t="s">
+        <v>362</v>
+      </c>
+      <c r="C88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88">
+        <v>800</v>
+      </c>
+      <c r="F88">
+        <v>41.759022999999999</v>
+      </c>
+      <c r="G88">
+        <v>-72.677806000000004</v>
+      </c>
+      <c r="H88" t="s">
+        <v>363</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>365</v>
+      </c>
+      <c r="B89" t="s">
+        <v>365</v>
+      </c>
+      <c r="C89" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89">
+        <v>800</v>
+      </c>
+      <c r="F89">
+        <v>41.786678999999999</v>
+      </c>
+      <c r="G89">
+        <v>-72.679171999999994</v>
+      </c>
+      <c r="H89" t="s">
+        <v>366</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>368</v>
+      </c>
+      <c r="B90" t="s">
+        <v>368</v>
+      </c>
+      <c r="C90" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>800</v>
+      </c>
+      <c r="F90">
+        <v>41.736108000000002</v>
+      </c>
+      <c r="G90">
+        <v>-72.671442999999996</v>
+      </c>
+      <c r="H90" t="s">
+        <v>369</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>371</v>
+      </c>
+      <c r="B91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C91" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>700</v>
+      </c>
+      <c r="F91">
+        <v>41.758152000000003</v>
+      </c>
+      <c r="G91">
+        <v>-72.692545999999993</v>
+      </c>
+      <c r="H91" t="s">
+        <v>372</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>374</v>
+      </c>
+      <c r="B92" t="s">
+        <v>374</v>
+      </c>
+      <c r="C92" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92">
+        <v>800</v>
+      </c>
+      <c r="F92">
+        <v>41.771082</v>
+      </c>
+      <c r="G92">
+        <v>-72.695193000000003</v>
+      </c>
+      <c r="H92" t="s">
+        <v>375</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>377</v>
+      </c>
+      <c r="B93" t="s">
+        <v>377</v>
+      </c>
+      <c r="C93" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>825</v>
+      </c>
+      <c r="F93">
+        <v>41.769424000000001</v>
+      </c>
+      <c r="G93">
+        <v>-72.699383999999995</v>
+      </c>
+      <c r="H93" t="s">
+        <v>378</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>380</v>
+      </c>
+      <c r="B94" t="s">
+        <v>380</v>
+      </c>
+      <c r="C94" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>800</v>
+      </c>
+      <c r="F94">
+        <v>41.766001000000003</v>
+      </c>
+      <c r="G94">
+        <v>-72.707052000000004</v>
+      </c>
+      <c r="H94" t="s">
+        <v>381</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>383</v>
+      </c>
+      <c r="B95" t="s">
+        <v>383</v>
+      </c>
+      <c r="C95" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95">
+        <v>800</v>
+      </c>
+      <c r="F95">
+        <v>41.757596999999997</v>
+      </c>
+      <c r="G95">
+        <v>-72.712314000000006</v>
+      </c>
+      <c r="H95" t="s">
+        <v>384</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>386</v>
+      </c>
+      <c r="B96" t="s">
+        <v>387</v>
+      </c>
+      <c r="C96" t="s">
+        <v>388</v>
+      </c>
+      <c r="D96" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96">
+        <v>895</v>
+      </c>
+      <c r="F96">
+        <v>41.749099999999999</v>
+      </c>
+      <c r="G96">
+        <v>-72.716999999999999</v>
+      </c>
+      <c r="H96" t="s">
+        <v>389</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>391</v>
+      </c>
+      <c r="B97" t="s">
+        <v>392</v>
+      </c>
+      <c r="C97" t="s">
+        <v>388</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>1944</v>
+      </c>
+      <c r="F97">
+        <v>41.781100000000002</v>
+      </c>
+      <c r="G97">
+        <v>-72.726100000000002</v>
+      </c>
+      <c r="H97" t="s">
+        <v>393</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>395</v>
+      </c>
+      <c r="B98" t="s">
+        <v>396</v>
+      </c>
+      <c r="C98" t="s">
+        <v>388</v>
+      </c>
+      <c r="D98" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98">
+        <v>1160</v>
+      </c>
+      <c r="F98">
+        <v>41.7669</v>
+      </c>
+      <c r="G98">
+        <v>-72.739900000000006</v>
+      </c>
+      <c r="H98" t="s">
+        <v>397</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>399</v>
+      </c>
+      <c r="B99" t="s">
+        <v>400</v>
+      </c>
+      <c r="C99" t="s">
+        <v>388</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <v>2462</v>
+      </c>
+      <c r="F99">
+        <v>41.7607</v>
+      </c>
+      <c r="G99">
+        <v>-72.742400000000004</v>
+      </c>
+      <c r="H99" t="s">
+        <v>401</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>403</v>
+      </c>
+      <c r="B100" t="s">
+        <v>404</v>
+      </c>
+      <c r="C100" t="s">
+        <v>388</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <v>982</v>
+      </c>
+      <c r="F100">
+        <v>41.73</v>
+      </c>
+      <c r="G100">
+        <v>-72.73</v>
+      </c>
+      <c r="H100" t="s">
+        <v>405</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>407</v>
+      </c>
+      <c r="B101" t="s">
+        <v>408</v>
+      </c>
+      <c r="C101" t="s">
+        <v>388</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <v>1867</v>
+      </c>
+      <c r="F101">
+        <v>41.786799999999999</v>
+      </c>
+      <c r="G101">
+        <v>-72.743200000000002</v>
+      </c>
+      <c r="H101" t="s">
+        <v>409</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>411</v>
+      </c>
+      <c r="B102" t="s">
+        <v>412</v>
+      </c>
+      <c r="C102" t="s">
+        <v>413</v>
+      </c>
+      <c r="D102" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102">
+        <v>1125</v>
+      </c>
+      <c r="F102">
+        <v>41.7196</v>
+      </c>
+      <c r="G102">
+        <v>-72.727000000000004</v>
+      </c>
+      <c r="H102" t="s">
+        <v>414</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>416</v>
+      </c>
+      <c r="B103" t="s">
+        <v>417</v>
+      </c>
+      <c r="C103" t="s">
+        <v>388</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>1443</v>
+      </c>
+      <c r="F103">
+        <v>41.754600000000003</v>
+      </c>
+      <c r="G103">
+        <v>-72.7667</v>
+      </c>
+      <c r="H103" t="s">
+        <v>418</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>420</v>
+      </c>
+      <c r="B104" t="s">
+        <v>421</v>
+      </c>
+      <c r="C104" t="s">
+        <v>42</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104">
+        <v>1188</v>
+      </c>
+      <c r="F104">
+        <v>41.817300000000003</v>
+      </c>
+      <c r="G104">
+        <v>-72.727199999999996</v>
+      </c>
+      <c r="H104" t="s">
+        <v>422</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>424</v>
+      </c>
+      <c r="B105" t="s">
+        <v>424</v>
+      </c>
+      <c r="C105" t="s">
+        <v>388</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105">
+        <v>2250</v>
+      </c>
+      <c r="F105">
+        <v>41.763728</v>
+      </c>
+      <c r="G105">
+        <v>-72.741400999999996</v>
+      </c>
+      <c r="H105" t="s">
+        <v>425</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>427</v>
+      </c>
+      <c r="B106" t="s">
+        <v>427</v>
+      </c>
+      <c r="C106" t="s">
+        <v>388</v>
+      </c>
+      <c r="D106" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106">
+        <v>1450</v>
+      </c>
+      <c r="F106">
+        <v>41.765089000000003</v>
+      </c>
+      <c r="G106">
+        <v>-72.741758000000004</v>
+      </c>
+      <c r="H106" t="s">
+        <v>428</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>430</v>
+      </c>
+      <c r="B107" t="s">
+        <v>431</v>
+      </c>
+      <c r="C107" t="s">
+        <v>432</v>
+      </c>
+      <c r="D107" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107">
+        <v>1102</v>
+      </c>
+      <c r="F107">
+        <v>41.710999999999999</v>
+      </c>
+      <c r="G107">
+        <v>-72.770799999999994</v>
+      </c>
+      <c r="H107" t="s">
+        <v>433</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>435</v>
+      </c>
+      <c r="B108" t="s">
+        <v>436</v>
+      </c>
+      <c r="C108" t="s">
+        <v>432</v>
+      </c>
+      <c r="D108" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108">
+        <v>1108</v>
+      </c>
+      <c r="F108">
+        <v>41.710700000000003</v>
+      </c>
+      <c r="G108">
+        <v>-72.772999999999996</v>
+      </c>
+      <c r="H108" t="s">
+        <v>437</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>439</v>
+      </c>
+      <c r="B109" t="s">
+        <v>440</v>
+      </c>
+      <c r="C109" t="s">
+        <v>432</v>
+      </c>
+      <c r="D109" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109">
+        <v>972</v>
+      </c>
+      <c r="F109">
+        <v>41.702300000000001</v>
+      </c>
+      <c r="G109">
+        <v>-72.775099999999995</v>
+      </c>
+      <c r="H109" t="s">
+        <v>441</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>443</v>
+      </c>
+      <c r="B110" t="s">
+        <v>444</v>
+      </c>
+      <c r="C110" t="s">
+        <v>42</v>
+      </c>
+      <c r="D110" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110">
+        <v>875</v>
+      </c>
+      <c r="F110">
+        <v>41.8307</v>
+      </c>
+      <c r="G110">
+        <v>-72.740399999999994</v>
+      </c>
+      <c r="H110" t="s">
+        <v>445</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>447</v>
+      </c>
+      <c r="B111" t="s">
+        <v>448</v>
+      </c>
+      <c r="C111" t="s">
+        <v>449</v>
+      </c>
+      <c r="D111" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111">
+        <v>1785</v>
+      </c>
+      <c r="F111">
+        <v>41.707599999999999</v>
+      </c>
+      <c r="G111">
+        <v>-72.799199999999999</v>
+      </c>
+      <c r="H111" t="s">
+        <v>450</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>452</v>
+      </c>
+      <c r="B112" t="s">
+        <v>453</v>
+      </c>
+      <c r="C112" t="s">
+        <v>454</v>
+      </c>
+      <c r="D112" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112">
+        <v>1193</v>
+      </c>
+      <c r="F112">
+        <v>41.8001</v>
+      </c>
+      <c r="G112">
+        <v>-72.821299999999994</v>
+      </c>
+      <c r="H112" t="s">
+        <v>455</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>457</v>
+      </c>
+      <c r="B113" t="s">
+        <v>458</v>
+      </c>
+      <c r="C113" t="s">
+        <v>432</v>
+      </c>
+      <c r="D113" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113">
+        <v>992</v>
+      </c>
+      <c r="F113">
+        <v>41.702500000000001</v>
+      </c>
+      <c r="G113">
+        <v>-72.795000000000002</v>
+      </c>
+      <c r="H113" t="s">
+        <v>459</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>461</v>
+      </c>
+      <c r="B114" t="s">
+        <v>462</v>
+      </c>
+      <c r="C114" t="s">
+        <v>454</v>
+      </c>
+      <c r="D114" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114">
+        <v>1179</v>
+      </c>
+      <c r="F114">
+        <v>41.8003</v>
+      </c>
+      <c r="G114">
+        <v>-72.8245</v>
+      </c>
+      <c r="H114" t="s">
+        <v>463</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>465</v>
+      </c>
+      <c r="B115" t="s">
+        <v>466</v>
+      </c>
+      <c r="C115" t="s">
+        <v>432</v>
+      </c>
+      <c r="D115" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115">
+        <v>850</v>
+      </c>
+      <c r="F115">
+        <v>41.690899999999999</v>
+      </c>
+      <c r="G115">
+        <v>-72.760599999999997</v>
+      </c>
+      <c r="H115" t="s">
+        <v>467</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
